--- a/M2RB/Project Outputs for M2RB/M2RB.xlsx
+++ b/M2RB/Project Outputs for M2RB/M2RB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\M2RB\Project Outputs for M2RB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22C9D73A-C638-449E-A3B7-5697353A7A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE075126-CFEF-4442-8599-9D2F8BE86D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -117,10 +117,7 @@
     <t>FA-20H 12.0000MD30Z-K3</t>
   </si>
   <si>
-    <t>SN74LVC1T45DBVR</t>
-  </si>
-  <si>
-    <t>SN65HVD1050D</t>
+    <t>TCAN334DR</t>
   </si>
   <si>
     <t>Cap</t>
@@ -207,12 +204,6 @@
     <t>LOW-POWER HIGH-ACCURACY ANALOG O</t>
   </si>
   <si>
-    <t>Single-Bit Dual-Supply Bus Transceiver with Configurable Voltage Translation and 3-State Outputs, DBV0006A, LARGE T&amp;R</t>
-  </si>
-  <si>
-    <t>High-Speed EMC Optimized CAN Transceiver, 70 mA, 5 V, -40 to 125 degC, 8-pin SOIC (D), Green (RoHS &amp; no Sb/Br)</t>
-  </si>
-  <si>
     <t>Capacitor</t>
   </si>
   <si>
@@ -255,7 +246,7 @@
     <t>CC0603KRX7R9BB681</t>
   </si>
   <si>
-    <t>C0603C104M4RACTU</t>
+    <t>CL10B104KA8NNNC</t>
   </si>
   <si>
     <t>GRM1885C1H102JA01D</t>
@@ -282,12 +273,6 @@
     <t>RC0603JR-070RL</t>
   </si>
   <si>
-    <t>RMCF0603FT60R4</t>
-  </si>
-  <si>
-    <t>RC0603JR-0710KL</t>
-  </si>
-  <si>
     <t>BK0603TS601-T</t>
   </si>
   <si>
@@ -324,7 +309,7 @@
     <t>CC0402BRNPO9BNR80</t>
   </si>
   <si>
-    <t>CC0402MRX5R6BB104</t>
+    <t>GRM155R71H104KE14J</t>
   </si>
   <si>
     <t>CC0402JRNPO9BN100</t>
@@ -336,7 +321,7 @@
     <t>CC0402CRNPO9BN1R0</t>
   </si>
   <si>
-    <t>CC0402KRX5R6BB474</t>
+    <t>GRT155R61E474ME01D</t>
   </si>
   <si>
     <t>C0402C150J5GACTU</t>
@@ -372,7 +357,7 @@
     <t>RC0402FR-0710KL</t>
   </si>
   <si>
-    <t>ERJ-2RKF1000X</t>
+    <t>RC0402FR-0710RL</t>
   </si>
   <si>
     <t>RC0402FR-0749R9L</t>
@@ -390,7 +375,7 @@
     <t>RMCF0402FT4K02</t>
   </si>
   <si>
-    <t>ERJ-2RKF2002X</t>
+    <t>RC0402FR-0720KL</t>
   </si>
   <si>
     <t>RC0402FR-072K2L</t>
@@ -483,9 +468,6 @@
     <t>FP-DBZ0003A-MFG</t>
   </si>
   <si>
-    <t>DBV0006A_L</t>
-  </si>
-  <si>
     <t>D0008A_N</t>
   </si>
   <si>
@@ -546,70 +528,70 @@
     <t>10nH</t>
   </si>
   <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>2.2pF</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>12pF</t>
+  </si>
+  <si>
+    <t>5.6pF</t>
+  </si>
+  <si>
+    <t>4.7pF</t>
+  </si>
+  <si>
+    <t>0.8pF</t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>30pF</t>
+  </si>
+  <si>
+    <t>1pF</t>
+  </si>
+  <si>
+    <t>15pF</t>
+  </si>
+  <si>
+    <t>330nF</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>0.5pF</t>
+  </si>
+  <si>
+    <t>1.8nH</t>
+  </si>
+  <si>
+    <t>1nH</t>
+  </si>
+  <si>
+    <t>3.9nH</t>
+  </si>
+  <si>
+    <t>15nH</t>
+  </si>
+  <si>
+    <t>47nH</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
     <t>10k</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>2.2pF</t>
-  </si>
-  <si>
-    <t>18pF</t>
-  </si>
-  <si>
-    <t>12pF</t>
-  </si>
-  <si>
-    <t>5.6pF</t>
-  </si>
-  <si>
-    <t>4.7pF</t>
-  </si>
-  <si>
-    <t>0.8pF</t>
-  </si>
-  <si>
-    <t>10pF</t>
-  </si>
-  <si>
-    <t>30pF</t>
-  </si>
-  <si>
-    <t>1pF</t>
-  </si>
-  <si>
-    <t>15pF</t>
-  </si>
-  <si>
-    <t>330nF</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>0.5pF</t>
-  </si>
-  <si>
-    <t>1.8nH</t>
-  </si>
-  <si>
-    <t>1nH</t>
-  </si>
-  <si>
-    <t>3.9nH</t>
-  </si>
-  <si>
-    <t>15nH</t>
-  </si>
-  <si>
-    <t>47nH</t>
-  </si>
-  <si>
-    <t>1k</t>
   </si>
   <si>
     <t>4.7k</t>
@@ -1021,7 +1003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -1034,25 +1016,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1060,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1083,10 +1065,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1115,10 +1097,10 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>1.98</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H4">
-        <v>1.98</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1146,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1155,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G6">
         <v>0.2301</v>
@@ -1169,16 +1151,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G7">
         <v>9.8000000000000004E-2</v>
@@ -1192,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1201,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G8">
         <v>0.69240000000000002</v>
@@ -1215,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1224,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G9">
         <v>1.78</v>
@@ -1238,7 +1220,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1247,13 +1229,13 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G10">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="H10">
-        <v>5.74</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1261,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1281,7 +1263,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1290,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G12">
         <v>1.52</v>
@@ -1324,16 +1306,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1341,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1350,13 +1332,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G15">
-        <v>2.0299999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="H15">
-        <v>2.0299999999999998</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1364,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -1373,13 +1355,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G16">
-        <v>4.8499999999999996</v>
+        <v>4.08</v>
       </c>
       <c r="H16">
-        <v>4.8499999999999996</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1387,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1396,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G17">
         <v>0.13</v>
@@ -1410,7 +1392,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -1419,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G18">
         <v>3.01</v>
@@ -1433,7 +1415,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1442,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G19">
         <v>5.46</v>
@@ -1456,7 +1438,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -1465,13 +1447,13 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G20">
-        <v>0.83176000000000005</v>
+        <v>0.84772000000000003</v>
       </c>
       <c r="H20">
-        <v>0.83176000000000005</v>
+        <v>0.84772000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,7 +1461,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -1488,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G21">
         <v>109.98</v>
@@ -1505,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1519,13 +1501,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G23">
-        <v>28.38</v>
+        <v>28.9</v>
       </c>
       <c r="H23">
-        <v>28.38</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1533,7 +1515,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -1542,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G24">
         <v>2.78</v>
@@ -1556,7 +1538,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -1565,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G25">
         <v>3.07</v>
@@ -1579,7 +1561,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -1588,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G26">
         <v>0.75839999999999996</v>
@@ -1602,7 +1584,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1622,22 +1604,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>152</v>
       </c>
       <c r="G28">
-        <v>0.15035000000000001</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H28">
-        <v>0.30070000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1645,48 +1630,51 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F29" t="s">
+        <v>153</v>
       </c>
       <c r="G29">
-        <v>1.28</v>
+        <v>0.12570000000000001</v>
       </c>
       <c r="H29">
-        <v>1.28</v>
+        <v>0.75419999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>885012208079</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F30" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G30">
-        <v>0.12570000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="H30">
-        <v>0.75419999999999998</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1694,25 +1682,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31">
-        <v>885012208079</v>
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G31">
-        <v>0.12</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H31">
-        <v>0.12</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1720,48 +1708,42 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G32">
-        <v>9.8000000000000004E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H32">
-        <v>9.8000000000000004E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
       <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>31</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>152</v>
-      </c>
       <c r="G33">
-        <v>9.0999999999999998E-2</v>
+        <v>0.98</v>
       </c>
       <c r="H33">
-        <v>9.0999999999999998E-2</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1769,625 +1751,631 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>147</v>
+      </c>
+      <c r="F34" t="s">
+        <v>156</v>
       </c>
       <c r="G34">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="H34">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G35">
-        <v>0.1</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="H35">
-        <v>0.1</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F36" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G36">
-        <v>4.3900000000000002E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H36">
-        <v>4.3900000000000002E-2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G37">
-        <v>3.0000000000000001E-3</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H37">
-        <v>1.7999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G38">
-        <v>4.9000000000000002E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H38">
-        <v>9.8000000000000004E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G39">
-        <v>8.0000000000000002E-3</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="H39">
-        <v>0.04</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G40">
-        <v>0.14099999999999999</v>
+        <v>0.1341</v>
       </c>
       <c r="H40">
-        <v>2.4</v>
+        <v>0.1341</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G41">
-        <v>0.13389999999999999</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H41">
-        <v>0.13389999999999999</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
-      </c>
-      <c r="F42" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="G42">
-        <v>2.3E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H42">
-        <v>2.3E-2</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="F43">
+        <v>470</v>
       </c>
       <c r="G43">
-        <v>0.14000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H43">
-        <v>1.54</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F44">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H44">
-        <v>1.2E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>603</v>
+      </c>
+      <c r="F45" t="s">
+        <v>156</v>
       </c>
       <c r="G45">
-        <v>4.0000000000000001E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H45">
-        <v>8.0000000000000002E-3</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>153</v>
-      </c>
-      <c r="F46">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="E46">
+        <v>603</v>
+      </c>
+      <c r="F46" t="s">
+        <v>160</v>
       </c>
       <c r="G46">
-        <v>2.4799999999999999E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="H46">
-        <v>4.9599999999999998E-2</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>153</v>
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>603</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G47">
-        <v>9.5899999999999999E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="H47">
-        <v>9.5899999999999999E-2</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D48">
-        <v>12</v>
-      </c>
-      <c r="E48">
-        <v>603</v>
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>148</v>
       </c>
       <c r="F48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G48">
-        <v>2.5999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H48">
-        <v>0.312</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D49">
-        <v>49</v>
-      </c>
-      <c r="E49">
-        <v>603</v>
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>148</v>
       </c>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G49">
-        <v>2.76E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H49">
-        <v>1.38</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D50">
-        <v>9</v>
-      </c>
-      <c r="E50">
-        <v>603</v>
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>148</v>
       </c>
       <c r="F50" t="s">
         <v>165</v>
       </c>
       <c r="G50">
-        <v>1.0699999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H50">
-        <v>0.107</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G51">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H51">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F52" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G52">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H52">
-        <v>5.3999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G53">
-        <v>6.0000000000000001E-3</v>
+        <v>1.35E-2</v>
       </c>
       <c r="H53">
-        <v>0.03</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G54">
-        <v>5.0000000000000001E-3</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="H54">
-        <v>5.0000000000000001E-3</v>
+        <v>9.3899999999999997E-2</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F55" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G55">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H55">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F56" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G56">
-        <v>1.35E-2</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="H56">
-        <v>0.13500000000000001</v>
+        <v>6.4600000000000005E-2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F57" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G57">
-        <v>9.3899999999999997E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H57">
-        <v>9.3899999999999997E-2</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F58" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G58">
         <v>5.0000000000000001E-3</v>
@@ -2398,585 +2386,585 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F59" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G59">
-        <v>3.2300000000000002E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="H59">
-        <v>6.4600000000000005E-2</v>
+        <v>6.6600000000000006E-2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D60">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F60" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G60">
-        <v>9.7000000000000003E-3</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="H60">
-        <v>0.17460000000000001</v>
+        <v>2.4799999999999999E-2</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F61" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="G61">
-        <v>5.0000000000000001E-3</v>
+        <v>0.1115</v>
       </c>
       <c r="H61">
-        <v>5.0000000000000001E-3</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F62" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G62">
-        <v>3.3300000000000003E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H62">
-        <v>6.6600000000000006E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F63" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G63">
-        <v>2.4799999999999999E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="H63">
-        <v>2.4799999999999999E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G64">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="H64">
-        <v>7.8799999999999995E-2</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G65">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H65">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F66" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G66">
-        <v>5.45E-2</v>
+        <v>2.18E-2</v>
       </c>
       <c r="H66">
-        <v>5.45E-2</v>
+        <v>2.18E-2</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>100</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F67" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="G67">
+        <v>0.1</v>
+      </c>
+      <c r="H67">
+        <v>0.1</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F68" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G68">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H68">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F69" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G69">
-        <v>2.18E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="H69">
-        <v>2.18E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F70" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G70">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="H70">
-        <v>0.1</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>154</v>
-      </c>
-      <c r="F71" t="s">
-        <v>188</v>
+        <v>148</v>
+      </c>
+      <c r="F71">
+        <v>500</v>
       </c>
       <c r="G71">
-        <v>1.2E-2</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="H71">
-        <v>1.2E-2</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F72" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G72">
-        <v>0.13</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H72">
-        <v>0.13</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F73" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G73">
-        <v>0.24</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H73">
-        <v>0.48</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F74">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>4.0000000000000001E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H74">
-        <v>2.4E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>154</v>
-      </c>
-      <c r="F75" t="s">
-        <v>191</v>
+        <v>148</v>
+      </c>
+      <c r="F75">
+        <v>50</v>
       </c>
       <c r="G75">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H75">
-        <v>1.6E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D76">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G76">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H76">
-        <v>2.7E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="G77">
-        <v>3.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H77">
-        <v>6.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F78">
-        <v>50</v>
+        <v>470</v>
       </c>
       <c r="G78">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H78">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G79">
-        <v>3.0000000000000001E-3</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="H79">
-        <v>8.9999999999999993E-3</v>
+        <v>2.1100000000000001E-2</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>154</v>
-      </c>
-      <c r="F80">
-        <v>330</v>
+        <v>148</v>
+      </c>
+      <c r="F80" t="s">
+        <v>188</v>
       </c>
       <c r="G80">
-        <v>9.8000000000000004E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H80">
-        <v>9.8000000000000004E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D81">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>154</v>
-      </c>
-      <c r="F81">
-        <v>470</v>
+        <v>148</v>
+      </c>
+      <c r="F81" t="s">
+        <v>189</v>
       </c>
       <c r="G81">
         <v>1.2E-2</v>
@@ -2987,327 +2975,249 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F82" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G82">
-        <v>2.1100000000000001E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="H82">
-        <v>2.1100000000000001E-2</v>
+        <v>2.23E-2</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>154</v>
-      </c>
-      <c r="F83" t="s">
-        <v>194</v>
+        <v>148</v>
+      </c>
+      <c r="F83">
+        <v>75</v>
       </c>
       <c r="G83">
-        <v>1.2999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H83">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F84" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G84">
-        <v>1.2E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H84">
-        <v>0.12</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C85" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>154</v>
-      </c>
-      <c r="F85" t="s">
-        <v>196</v>
+        <v>148</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>2.23E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="H85">
-        <v>2.23E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="D86">
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>154</v>
-      </c>
-      <c r="F86">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G86">
-        <v>3.0000000000000001E-3</v>
+        <v>0.1482</v>
       </c>
       <c r="H86">
-        <v>1.2E-2</v>
+        <v>0.59279999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F87" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G87">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H87">
-        <v>6.0000000000000001E-3</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>154</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="F88" t="s">
+        <v>193</v>
       </c>
       <c r="G88">
-        <v>2E-3</v>
+        <v>1.02</v>
       </c>
       <c r="H88">
-        <v>2E-3</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>150</v>
+      </c>
+      <c r="F89" t="s">
+        <v>194</v>
       </c>
       <c r="G89">
-        <v>0.1482</v>
+        <v>7.5899999999999995E-2</v>
       </c>
       <c r="H89">
-        <v>0.59279999999999999</v>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G90">
-        <v>1.1599999999999999</v>
+        <v>0.1603</v>
       </c>
       <c r="H90">
-        <v>3.48</v>
+        <v>0.3206</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>155</v>
-      </c>
-      <c r="F91" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="G91">
-        <v>1.02</v>
+        <v>0.24</v>
       </c>
       <c r="H91">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92" t="s">
-        <v>59</v>
-      </c>
-      <c r="C92" t="s">
-        <v>126</v>
-      </c>
-      <c r="D92">
-        <v>10</v>
-      </c>
-      <c r="E92" t="s">
-        <v>156</v>
-      </c>
-      <c r="F92" t="s">
-        <v>200</v>
-      </c>
-      <c r="G92">
-        <v>7.5899999999999995E-2</v>
-      </c>
-      <c r="H92">
-        <v>0.75900000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93" t="s">
-        <v>127</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93" t="s">
-        <v>156</v>
-      </c>
-      <c r="F93" t="s">
-        <v>201</v>
-      </c>
-      <c r="G93">
-        <v>0.1701</v>
-      </c>
-      <c r="H93">
-        <v>0.3402</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" t="s">
-        <v>38</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
-        <v>157</v>
-      </c>
-      <c r="G94">
-        <v>0.24</v>
-      </c>
-      <c r="H94">
         <v>0.24</v>
       </c>
     </row>

--- a/M2RB/Project Outputs for M2RB/M2RB.xlsx
+++ b/M2RB/Project Outputs for M2RB/M2RB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\M2RB\Project Outputs for M2RB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE075126-CFEF-4442-8599-9D2F8BE86D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A04B2D39-54B9-421B-917B-C774AC39CD47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -231,6 +231,12 @@
     <t>FA-20H12.0000MD30Z-K3</t>
   </si>
   <si>
+    <t>GRM32ER61A107ME20K</t>
+  </si>
+  <si>
+    <t>GCM32ER70J476KE19L</t>
+  </si>
+  <si>
     <t>CL31A106MAHNNNE</t>
   </si>
   <si>
@@ -255,7 +261,7 @@
     <t>CL10B105MO8NNWC</t>
   </si>
   <si>
-    <t>GRM188R71C474KA88D</t>
+    <t>CL10B474KO8NNNC</t>
   </si>
   <si>
     <t>MLZ1608N100LT000</t>
@@ -393,12 +399,6 @@
     <t>RC0402JR-070RL</t>
   </si>
   <si>
-    <t>GRM32ER61A107ME20L</t>
-  </si>
-  <si>
-    <t>GCM32ER70J476KE19L</t>
-  </si>
-  <si>
     <t>CL21A475KAQNNNG</t>
   </si>
   <si>
@@ -471,6 +471,9 @@
     <t>D0008A_N</t>
   </si>
   <si>
+    <t>C1210</t>
+  </si>
+  <si>
     <t>C1206</t>
   </si>
   <si>
@@ -483,9 +486,6 @@
     <t>0402-A</t>
   </si>
   <si>
-    <t>14-1210</t>
-  </si>
-  <si>
     <t>6-0805_M</t>
   </si>
   <si>
@@ -495,6 +495,12 @@
     <t>Value</t>
   </si>
   <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -610,12 +616,6 @@
   </si>
   <si>
     <t>2.49k</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>47uF</t>
   </si>
   <si>
     <t>4.7uF</t>
@@ -1097,10 +1097,10 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1450,10 +1450,10 @@
         <v>137</v>
       </c>
       <c r="G20">
-        <v>0.84772000000000003</v>
+        <v>0.84284999999999999</v>
       </c>
       <c r="H20">
-        <v>0.84772000000000003</v>
+        <v>0.84284999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1504,10 +1504,10 @@
         <v>140</v>
       </c>
       <c r="G23">
-        <v>28.9</v>
+        <v>28.75</v>
       </c>
       <c r="H23">
-        <v>28.9</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1636,7 +1636,7 @@
         <v>65</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
         <v>145</v>
@@ -1645,10 +1645,10 @@
         <v>153</v>
       </c>
       <c r="G29">
-        <v>0.12570000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H29">
-        <v>0.75419999999999998</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1658,11 +1658,11 @@
       <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="C30">
-        <v>885012208079</v>
+      <c r="C30" t="s">
+        <v>66</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
         <v>145</v>
@@ -1671,47 +1671,47 @@
         <v>154</v>
       </c>
       <c r="G30">
-        <v>0.12</v>
+        <v>0.90890000000000004</v>
       </c>
       <c r="H30">
-        <v>0.12</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F31" t="s">
         <v>155</v>
       </c>
       <c r="G31">
-        <v>9.8000000000000004E-2</v>
+        <v>0.12570000000000001</v>
       </c>
       <c r="H31">
-        <v>9.8000000000000004E-2</v>
+        <v>0.75419999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>885012208079</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1719,39 +1719,51 @@
       <c r="E32" t="s">
         <v>146</v>
       </c>
+      <c r="F32" t="s">
+        <v>156</v>
+      </c>
       <c r="G32">
-        <v>9.0999999999999998E-2</v>
+        <v>0.12</v>
       </c>
       <c r="H32">
-        <v>9.0999999999999998E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>146</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
       </c>
       <c r="G33">
-        <v>0.98</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H33">
-        <v>0.98</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1759,22 +1771,16 @@
       <c r="E34" t="s">
         <v>147</v>
       </c>
-      <c r="F34" t="s">
-        <v>156</v>
-      </c>
       <c r="G34">
-        <v>0.1</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H34">
-        <v>0.1</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>69</v>
@@ -1783,42 +1789,36 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="G35">
-        <v>4.3900000000000002E-2</v>
+        <v>0.98</v>
       </c>
       <c r="H35">
-        <v>4.3900000000000002E-2</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F36" t="s">
         <v>158</v>
       </c>
       <c r="G36">
-        <v>2.7E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H36">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1835,16 +1835,16 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F37" t="s">
         <v>159</v>
       </c>
       <c r="G37">
-        <v>4.9000000000000002E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="H37">
-        <v>4.9000000000000002E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1858,19 +1858,19 @@
         <v>72</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F38" t="s">
         <v>160</v>
       </c>
       <c r="G38">
-        <v>8.0000000000000002E-3</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H38">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1884,218 +1884,218 @@
         <v>73</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F39" t="s">
         <v>161</v>
       </c>
       <c r="G39">
-        <v>0.14099999999999999</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H39">
-        <v>2.4</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>74</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F40" t="s">
         <v>162</v>
       </c>
       <c r="G40">
-        <v>0.1341</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H40">
-        <v>0.1341</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
         <v>75</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F41" t="s">
         <v>163</v>
       </c>
       <c r="G41">
-        <v>2.3E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H41">
-        <v>2.3E-2</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
       </c>
       <c r="C42" t="s">
         <v>76</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="F42" t="s">
+        <v>164</v>
       </c>
       <c r="G42">
-        <v>0.14000000000000001</v>
+        <v>0.1341</v>
       </c>
       <c r="H42">
-        <v>1.54</v>
+        <v>0.1341</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
         <v>77</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43">
-        <v>470</v>
+        <v>148</v>
+      </c>
+      <c r="F43" t="s">
+        <v>165</v>
       </c>
       <c r="G43">
-        <v>4.0000000000000001E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H43">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
         <v>78</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G44">
-        <v>4.0000000000000001E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H44">
-        <v>4.0000000000000001E-3</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>79</v>
       </c>
       <c r="D45">
-        <v>12</v>
-      </c>
-      <c r="E45">
-        <v>603</v>
-      </c>
-      <c r="F45" t="s">
-        <v>156</v>
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45">
+        <v>470</v>
       </c>
       <c r="G45">
-        <v>2.5999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H45">
-        <v>0.312</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
         <v>80</v>
       </c>
       <c r="D46">
-        <v>49</v>
-      </c>
-      <c r="E46">
-        <v>603</v>
-      </c>
-      <c r="F46" t="s">
-        <v>160</v>
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>2.76E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H46">
-        <v>1.38</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
         <v>81</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E47">
         <v>603</v>
       </c>
       <c r="F47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G47">
-        <v>1.0699999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H47">
-        <v>0.107</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2109,19 +2109,19 @@
         <v>82</v>
       </c>
       <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48" t="s">
-        <v>148</v>
+        <v>49</v>
+      </c>
+      <c r="E48">
+        <v>603</v>
       </c>
       <c r="F48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G48">
-        <v>5.0000000000000001E-3</v>
+        <v>2.76E-2</v>
       </c>
       <c r="H48">
-        <v>2.5000000000000001E-2</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2137,17 +2137,17 @@
       <c r="D49">
         <v>9</v>
       </c>
-      <c r="E49" t="s">
-        <v>148</v>
+      <c r="E49">
+        <v>603</v>
       </c>
       <c r="F49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G49">
-        <v>6.0000000000000001E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="H49">
-        <v>5.3999999999999999E-2</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2164,16 +2164,16 @@
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G50">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H50">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2187,19 +2187,19 @@
         <v>85</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F51" t="s">
         <v>166</v>
       </c>
       <c r="G51">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H51">
-        <v>5.0000000000000001E-3</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2213,10 +2213,10 @@
         <v>86</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F52" t="s">
         <v>167</v>
@@ -2225,7 +2225,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H52">
-        <v>6.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2239,19 +2239,19 @@
         <v>87</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F53" t="s">
         <v>168</v>
       </c>
       <c r="G53">
-        <v>1.35E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H53">
-        <v>0.13500000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2268,16 +2268,16 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F54" t="s">
         <v>169</v>
       </c>
       <c r="G54">
-        <v>9.3899999999999997E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H54">
-        <v>9.3899999999999997E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2291,19 +2291,19 @@
         <v>89</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F55" t="s">
         <v>170</v>
       </c>
       <c r="G55">
-        <v>5.0000000000000001E-3</v>
+        <v>1.35E-2</v>
       </c>
       <c r="H55">
-        <v>5.0000000000000001E-3</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2317,19 +2317,19 @@
         <v>90</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F56" t="s">
         <v>171</v>
       </c>
       <c r="G56">
-        <v>3.2300000000000002E-2</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="H56">
-        <v>6.4600000000000005E-2</v>
+        <v>9.3899999999999997E-2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2343,19 +2343,19 @@
         <v>91</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F57" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G57">
-        <v>3.1E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H57">
-        <v>0.55800000000000005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2369,19 +2369,19 @@
         <v>92</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G58">
-        <v>5.0000000000000001E-3</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="H58">
-        <v>5.0000000000000001E-3</v>
+        <v>6.4600000000000005E-2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2395,19 +2395,19 @@
         <v>93</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F59" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G59">
-        <v>3.3300000000000003E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H59">
-        <v>6.6600000000000006E-2</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2424,16 +2424,16 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F60" t="s">
         <v>174</v>
       </c>
       <c r="G60">
-        <v>2.4799999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H60">
-        <v>2.4799999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2450,16 +2450,16 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F61" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G61">
-        <v>0.1115</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="H61">
-        <v>0.223</v>
+        <v>6.6600000000000006E-2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2473,19 +2473,19 @@
         <v>96</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G62">
-        <v>5.0000000000000001E-3</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="H62">
-        <v>0.01</v>
+        <v>2.4799999999999999E-2</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2499,19 +2499,19 @@
         <v>97</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F63" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G63">
-        <v>4.9599999999999998E-2</v>
+        <v>0.1115</v>
       </c>
       <c r="H63">
-        <v>4.9599999999999998E-2</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2521,14 +2521,23 @@
       <c r="B64" t="s">
         <v>56</v>
       </c>
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F64" t="s">
         <v>177</v>
+      </c>
+      <c r="G64">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H64">
+        <v>0.01</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2539,56 +2548,47 @@
         <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F65" t="s">
         <v>178</v>
       </c>
       <c r="G65">
-        <v>4.0000000000000001E-3</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="H65">
-        <v>4.0000000000000001E-3</v>
+        <v>4.9599999999999998E-2</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F66" t="s">
         <v>179</v>
       </c>
-      <c r="G66">
-        <v>2.18E-2</v>
-      </c>
-      <c r="H66">
-        <v>2.18E-2</v>
-      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
         <v>100</v>
@@ -2597,16 +2597,16 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F67" t="s">
         <v>180</v>
       </c>
       <c r="G67">
-        <v>0.1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H67">
-        <v>0.1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2623,16 +2623,16 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F68" t="s">
         <v>181</v>
       </c>
       <c r="G68">
-        <v>1.2E-2</v>
+        <v>2.18E-2</v>
       </c>
       <c r="H68">
-        <v>1.2E-2</v>
+        <v>2.18E-2</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2649,16 +2649,16 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F69" t="s">
         <v>182</v>
       </c>
       <c r="G69">
-        <v>5.5899999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H69">
-        <v>5.5899999999999998E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2672,71 +2672,71 @@
         <v>103</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F70" t="s">
         <v>183</v>
       </c>
       <c r="G70">
-        <v>0.24</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H70">
-        <v>0.48</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
         <v>104</v>
       </c>
       <c r="D71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>148</v>
-      </c>
-      <c r="F71">
-        <v>500</v>
+        <v>149</v>
+      </c>
+      <c r="F71" t="s">
+        <v>184</v>
       </c>
       <c r="G71">
-        <v>2.9499999999999998E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="H71">
-        <v>0.17699999999999999</v>
+        <v>5.5899999999999998E-2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
         <v>105</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F72" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G72">
-        <v>4.0000000000000001E-3</v>
+        <v>0.24</v>
       </c>
       <c r="H72">
-        <v>1.6E-2</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2750,19 +2750,19 @@
         <v>106</v>
       </c>
       <c r="D73">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>148</v>
-      </c>
-      <c r="F73" t="s">
-        <v>185</v>
+        <v>149</v>
+      </c>
+      <c r="F73">
+        <v>500</v>
       </c>
       <c r="G73">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="H73">
-        <v>2.7E-2</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2776,19 +2776,19 @@
         <v>107</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>148</v>
-      </c>
-      <c r="F74">
-        <v>10</v>
+        <v>149</v>
+      </c>
+      <c r="F74" t="s">
+        <v>186</v>
       </c>
       <c r="G74">
-        <v>2.1000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H74">
-        <v>4.2000000000000003E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2802,19 +2802,19 @@
         <v>108</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>148</v>
-      </c>
-      <c r="F75">
-        <v>50</v>
+        <v>149</v>
+      </c>
+      <c r="F75" t="s">
+        <v>187</v>
       </c>
       <c r="G75">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H75">
-        <v>0.02</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2828,19 +2828,19 @@
         <v>109</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>148</v>
-      </c>
-      <c r="F76" t="s">
-        <v>186</v>
+        <v>149</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
       </c>
       <c r="G76">
-        <v>3.0000000000000001E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H76">
-        <v>8.9999999999999993E-3</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2854,19 +2854,19 @@
         <v>110</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F77">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="G77">
-        <v>9.8000000000000004E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H77">
-        <v>9.8000000000000004E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2880,19 +2880,19 @@
         <v>111</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>148</v>
-      </c>
-      <c r="F78">
-        <v>470</v>
+        <v>149</v>
+      </c>
+      <c r="F78" t="s">
+        <v>188</v>
       </c>
       <c r="G78">
-        <v>1.2E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H78">
-        <v>0.12</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2909,16 +2909,16 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>148</v>
-      </c>
-      <c r="F79" t="s">
-        <v>187</v>
+        <v>149</v>
+      </c>
+      <c r="F79">
+        <v>330</v>
       </c>
       <c r="G79">
-        <v>2.1100000000000001E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H79">
-        <v>2.1100000000000001E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2932,19 +2932,19 @@
         <v>113</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>148</v>
-      </c>
-      <c r="F80" t="s">
-        <v>188</v>
+        <v>149</v>
+      </c>
+      <c r="F80">
+        <v>470</v>
       </c>
       <c r="G80">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H80">
-        <v>4.0000000000000001E-3</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2958,19 +2958,19 @@
         <v>114</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
         <v>189</v>
       </c>
       <c r="G81">
-        <v>1.2E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="H81">
-        <v>0.12</v>
+        <v>2.1100000000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2987,16 +2987,16 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
         <v>190</v>
       </c>
       <c r="G82">
-        <v>2.23E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H82">
-        <v>2.23E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3010,19 +3010,19 @@
         <v>116</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>148</v>
-      </c>
-      <c r="F83">
-        <v>75</v>
+        <v>149</v>
+      </c>
+      <c r="F83" t="s">
+        <v>191</v>
       </c>
       <c r="G83">
-        <v>3.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H83">
-        <v>1.2E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3036,19 +3036,19 @@
         <v>117</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G84">
-        <v>3.0000000000000001E-3</v>
+        <v>2.23E-2</v>
       </c>
       <c r="H84">
-        <v>6.0000000000000001E-3</v>
+        <v>2.23E-2</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3062,91 +3062,91 @@
         <v>118</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G85">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H85">
-        <v>2E-3</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B86" t="s">
+        <v>57</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>149</v>
+      </c>
+      <c r="F86" t="s">
+        <v>193</v>
       </c>
       <c r="G86">
-        <v>0.1482</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H86">
-        <v>0.59279999999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E87" t="s">
         <v>149</v>
       </c>
-      <c r="F87" t="s">
-        <v>192</v>
+      <c r="F87">
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>1.1599999999999999</v>
+        <v>2E-3</v>
       </c>
       <c r="H87">
-        <v>3.48</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>149</v>
-      </c>
-      <c r="F88" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="G88">
-        <v>1.02</v>
+        <v>0.1482</v>
       </c>
       <c r="H88">
-        <v>2.04</v>
+        <v>0.59279999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">

--- a/M2RB/Project Outputs for M2RB/M2RB.xlsx
+++ b/M2RB/Project Outputs for M2RB/M2RB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\M2RB\Project Outputs for M2RB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A04B2D39-54B9-421B-917B-C774AC39CD47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C7AC0E4-9D47-420B-90D9-12465A8CD9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,594 +34,588 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="196">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>HSEC8-120-01-L-PV-4-1</t>
+  </si>
+  <si>
+    <t>74LVC1T45GF,132</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>67503-1020</t>
+  </si>
+  <si>
+    <t>LED0</t>
+  </si>
+  <si>
+    <t>AT25SL641_113</t>
+  </si>
+  <si>
+    <t>600R, 0.27A</t>
+  </si>
+  <si>
+    <t>D5V0L2B3W-7</t>
+  </si>
+  <si>
+    <t>DP83825IRMQT</t>
+  </si>
+  <si>
+    <t>ECS-TXO-2520-33-400-AN-TR</t>
+  </si>
+  <si>
+    <t>EMPCB.SMAFSTJ.B.HT</t>
+  </si>
+  <si>
+    <t>Res1</t>
+  </si>
+  <si>
+    <t>FA-20H 12.0000MD30Z-K3</t>
+  </si>
+  <si>
+    <t>FC-135 32.7680KA-AC</t>
+  </si>
+  <si>
+    <t>FTSH-105-01-L-DV-K</t>
+  </si>
+  <si>
+    <t>HX1188FNL</t>
+  </si>
+  <si>
+    <t>LMS7002M</t>
+  </si>
+  <si>
+    <t>LSM6DSMTR</t>
+  </si>
+  <si>
+    <t>M24128-BWMN6TP</t>
+  </si>
+  <si>
+    <t>MCP2210-I/MQ</t>
+  </si>
+  <si>
+    <t>MCP2515-I/SO</t>
+  </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t>200R, 1.8A</t>
+  </si>
+  <si>
+    <t>NRF52832-QFAA-R</t>
+  </si>
+  <si>
+    <t>PL133-27GC-R</t>
+  </si>
+  <si>
+    <t>PTS647SK38SMTR2LFS</t>
+  </si>
+  <si>
+    <t>RJULE4218201</t>
+  </si>
+  <si>
+    <t>SKY65111</t>
+  </si>
+  <si>
+    <t>TC1-1-13MA+</t>
+  </si>
+  <si>
+    <t>TC33X-2-103E</t>
+  </si>
+  <si>
+    <t>TCAN334DR</t>
+  </si>
+  <si>
+    <t>TMP235A2DBZR</t>
+  </si>
+  <si>
+    <t>TPS7A9101DSKT</t>
+  </si>
+  <si>
+    <t>TSX-3225 25.0000MF20P-C0</t>
+  </si>
+  <si>
+    <t>XC7S25-1FTGB196C</t>
+  </si>
+  <si>
     <t>XRCGB32M000F1H00R0</t>
   </si>
   <si>
-    <t>TSX-3225 25.0000MF20P-C0</t>
-  </si>
-  <si>
-    <t>TPS7A9101DSKT</t>
-  </si>
-  <si>
-    <t>TC1-1-13MA+</t>
-  </si>
-  <si>
-    <t>D5V0L2B3W-7</t>
-  </si>
-  <si>
-    <t>NPN</t>
-  </si>
-  <si>
-    <t>PL133-27GC-R</t>
-  </si>
-  <si>
-    <t>MCP2515-I/SO</t>
-  </si>
-  <si>
-    <t>FTSH-105-01-L-DV-K</t>
-  </si>
-  <si>
-    <t>SKY65111</t>
-  </si>
-  <si>
-    <t>DP83825IRMQT</t>
-  </si>
-  <si>
-    <t>RJULE4218201</t>
-  </si>
-  <si>
-    <t>FC-135 32.7680KA-AC</t>
-  </si>
-  <si>
-    <t>MCP2210-I/MQ</t>
-  </si>
-  <si>
-    <t>HX1188FNL</t>
-  </si>
-  <si>
-    <t>PTS647SK38SMTR2LFS</t>
-  </si>
-  <si>
-    <t>ECS-TXO-2520-33-400-AN-TR</t>
-  </si>
-  <si>
-    <t>NRF52832-QFAA-R</t>
-  </si>
-  <si>
-    <t>67503-1020</t>
-  </si>
-  <si>
-    <t>LMS7002M</t>
-  </si>
-  <si>
-    <t>HSEC8-120-01-L-PV-4-1</t>
-  </si>
-  <si>
-    <t>XC7S25-1FTGB196C</t>
-  </si>
-  <si>
-    <t>LSM6DSMTR</t>
-  </si>
-  <si>
-    <t>EMPCB.SMAFSTJ.B.HT</t>
-  </si>
-  <si>
-    <t>TMP235A2DBZR</t>
-  </si>
-  <si>
-    <t>FA-20H 12.0000MD30Z-K3</t>
-  </si>
-  <si>
-    <t>TCAN334DR</t>
-  </si>
-  <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>Res1</t>
-  </si>
-  <si>
-    <t>TC33X-2-103E</t>
-  </si>
-  <si>
-    <t>AT25SL641_113</t>
-  </si>
-  <si>
-    <t>200R, 1.8A</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>LED0</t>
-  </si>
-  <si>
-    <t>600R, 0.27A</t>
-  </si>
-  <si>
-    <t>74LVC1T45GF,132</t>
-  </si>
-  <si>
-    <t>M24128-BWMN6TP</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>USB, MINI, SMD, RA KME04-USBMU03A01</t>
+  </si>
+  <si>
+    <t>No Description Available</t>
+  </si>
+  <si>
+    <t>40MHz TCXO HCMOS Oscillator 3.3V Enable/Disable 4-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>CONN SMA JACK STR 50OHM EDGE MNT</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>32.768kHz Crystal Oscillator</t>
+  </si>
+  <si>
+    <t>Male Header, Pitch 1.27 mm, 2 x 5 Position, Height 6.25 mm</t>
+  </si>
+  <si>
+    <t>Telecom Transformer 1:1/1:1, -40 to 85 degC, 16-Pin SMT, RoHS, Tube</t>
+  </si>
+  <si>
+    <t>FPRF MIMO Transceiver IC with Integrated Microcontroller, 1.1 to 1.89 V, -40 to 85 degC, 261-Pin QFN, RoHS</t>
+  </si>
+  <si>
+    <t>IMU ACCEL/GYRO I2C/SPI 14LGA</t>
+  </si>
+  <si>
+    <t>USB-to-SPI Protocol Converter with GPIO (Master Mode), 20-Pin QFN, Industrial Temperature</t>
+  </si>
+  <si>
+    <t>Stand-Alone CAN Controller With SPI Interface, 18-Pin SOIC, Industrial Temperature</t>
+  </si>
+  <si>
+    <t>NPN Bipolar Transistor</t>
+  </si>
+  <si>
+    <t>Multiprotocol Bluetooth Smart, ANT/ANT+ and Proprietary System-on-Chip, 2.4 GHz, 256 KB FLASH, 1.7 to 3.6 V, -40 to 85 degC, 48-Pin QFN, RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>Clock Fanout Buffer _Distribution_ IC 1:2 150MHz 6-UFDFN Exposed Pad</t>
+  </si>
+  <si>
+    <t>Trimming Potentiometer, 10000 Ohm, -40 to 100 degC, 3-Pin SMD, RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>LOW-POWER HIGH-ACCURACY ANALOG O</t>
+  </si>
+  <si>
+    <t>25MHz Crystal Oscillator</t>
+  </si>
+  <si>
     <t>32MHz Crystal Oscillator</t>
   </si>
   <si>
-    <t>25MHz Crystal Oscillator</t>
-  </si>
-  <si>
-    <t>No Description Available</t>
-  </si>
-  <si>
-    <t>NPN Bipolar Transistor</t>
-  </si>
-  <si>
-    <t>Clock Fanout Buffer _Distribution_ IC 1:2 150MHz 6-UFDFN Exposed Pad</t>
-  </si>
-  <si>
-    <t>Stand-Alone CAN Controller With SPI Interface, 18-Pin SOIC, Industrial Temperature</t>
-  </si>
-  <si>
-    <t>Male Header, Pitch 1.27 mm, 2 x 5 Position, Height 6.25 mm</t>
-  </si>
-  <si>
-    <t>32.768kHz Crystal Oscillator</t>
-  </si>
-  <si>
-    <t>USB-to-SPI Protocol Converter with GPIO (Master Mode), 20-Pin QFN, Industrial Temperature</t>
-  </si>
-  <si>
-    <t>Telecom Transformer 1:1/1:1, -40 to 85 degC, 16-Pin SMT, RoHS, Tube</t>
-  </si>
-  <si>
-    <t>40MHz TCXO HCMOS Oscillator 3.3V Enable/Disable 4-SMD, No Lead</t>
-  </si>
-  <si>
-    <t>Multiprotocol Bluetooth Smart, ANT/ANT+ and Proprietary System-on-Chip, 2.4 GHz, 256 KB FLASH, 1.7 to 3.6 V, -40 to 85 degC, 48-Pin QFN, RoHS, Tape and Reel</t>
-  </si>
-  <si>
-    <t>USB, MINI, SMD, RA KME04-USBMU03A01</t>
-  </si>
-  <si>
-    <t>FPRF MIMO Transceiver IC with Integrated Microcontroller, 1.1 to 1.89 V, -40 to 85 degC, 261-Pin QFN, RoHS</t>
-  </si>
-  <si>
-    <t>IMU ACCEL/GYRO I2C/SPI 14LGA</t>
-  </si>
-  <si>
-    <t>CONN SMA JACK STR 50OHM EDGE MNT</t>
-  </si>
-  <si>
-    <t>LOW-POWER HIGH-ACCURACY ANALOG O</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>Trimming Potentiometer, 10000 Ohm, -40 to 100 degC, 3-Pin SMD, RoHS, Tape and Reel</t>
-  </si>
-  <si>
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
-    <t>TSX-322525.0000MF20P-C0</t>
+    <t>0402HP-470EGTS</t>
+  </si>
+  <si>
+    <t>150060RS75000</t>
+  </si>
+  <si>
+    <t>AT25SL641-MHE-T</t>
+  </si>
+  <si>
+    <t>BK0603TS601-T</t>
+  </si>
+  <si>
+    <t>C0402C150J5GACTU</t>
+  </si>
+  <si>
+    <t>CC0201KRX5R5BB105</t>
+  </si>
+  <si>
+    <t>CC0201KRX5R8BB102</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BNR80</t>
+  </si>
+  <si>
+    <t>CC0402CRNPO9BN1R0</t>
+  </si>
+  <si>
+    <t>CC0402CRNPO9BN2R2</t>
+  </si>
+  <si>
+    <t>CC0402CRNPO9BN4R7</t>
+  </si>
+  <si>
+    <t>CC0402DRNPO9BN5R6</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN100</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN101</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN120</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN180</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN300</t>
+  </si>
+  <si>
+    <t>CC0402KRX5R6BB334</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R7BB103</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R9BB102</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB681</t>
+  </si>
+  <si>
+    <t>CL05C0R5BB5NNNC</t>
+  </si>
+  <si>
+    <t>CL10B104KA8NNNC</t>
+  </si>
+  <si>
+    <t>CL10B105MO8NNWC</t>
+  </si>
+  <si>
+    <t>CL10B474KO8NNNC</t>
+  </si>
+  <si>
+    <t>CL21A475KAQNNNG</t>
+  </si>
+  <si>
+    <t>CL31A106MAHNNNE</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF75R0X</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF2491X</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF4990X</t>
+  </si>
+  <si>
+    <t>FC-13532.7680KA-AC</t>
+  </si>
+  <si>
+    <t>GCM32ER70J476KE19L</t>
+  </si>
+  <si>
+    <t>GRM32ER61A107ME20K</t>
+  </si>
+  <si>
+    <t>GRM155R71H104KE14J</t>
+  </si>
+  <si>
+    <t>GRM1885C1H102JA01D</t>
+  </si>
+  <si>
+    <t>GRT155R61E474ME01D</t>
+  </si>
+  <si>
+    <t>HK10051N8S-T</t>
+  </si>
+  <si>
+    <t>HK10053N9S-T</t>
+  </si>
+  <si>
+    <t>HK160810NJ-T</t>
+  </si>
+  <si>
+    <t>LQG15HN1N0C02D</t>
+  </si>
+  <si>
+    <t>LQG15WZ15NJ02D</t>
+  </si>
+  <si>
+    <t>MLF2012C101KT000</t>
+  </si>
+  <si>
+    <t>MLZ1608N100LT000</t>
   </si>
   <si>
     <t>MMBT3904-TP</t>
   </si>
   <si>
+    <t>MPZ1608D300BTA00</t>
+  </si>
+  <si>
+    <t>RC0402FR-071KL</t>
+  </si>
+  <si>
+    <t>RC0402FR-072K2L</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710KL</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710RL</t>
+  </si>
+  <si>
+    <t>RC0402FR-0720KL</t>
+  </si>
+  <si>
+    <t>RC0402FR-0749R9L</t>
+  </si>
+  <si>
+    <t>RC0402FR-07330RL</t>
+  </si>
+  <si>
+    <t>RC0402FR-07470RL</t>
+  </si>
+  <si>
+    <t>RC0402JR-070RL</t>
+  </si>
+  <si>
+    <t>RC0402JR-074K7L</t>
+  </si>
+  <si>
+    <t>RC0603JR-070RL</t>
+  </si>
+  <si>
+    <t>RC0603JR-07470RL</t>
+  </si>
+  <si>
+    <t>RC1206FR-071ML</t>
+  </si>
+  <si>
+    <t>RMCF0402FT4K02</t>
+  </si>
+  <si>
+    <t>RMCF0402FT6K49</t>
+  </si>
+  <si>
     <t>SKY65111-348LF</t>
   </si>
   <si>
-    <t>FC-13532.7680KA-AC</t>
-  </si>
-  <si>
-    <t>FA-20H12.0000MD30Z-K3</t>
-  </si>
-  <si>
-    <t>GRM32ER61A107ME20K</t>
-  </si>
-  <si>
-    <t>GCM32ER70J476KE19L</t>
-  </si>
-  <si>
-    <t>CL31A106MAHNNNE</t>
-  </si>
-  <si>
-    <t>RC1206FR-071ML</t>
-  </si>
-  <si>
-    <t>AT25SL641-MHE-T</t>
-  </si>
-  <si>
-    <t>MPZ1608D300BTA00</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB681</t>
-  </si>
-  <si>
-    <t>CL10B104KA8NNNC</t>
-  </si>
-  <si>
-    <t>GRM1885C1H102JA01D</t>
-  </si>
-  <si>
-    <t>CL10B105MO8NNWC</t>
-  </si>
-  <si>
-    <t>CL10B474KO8NNNC</t>
-  </si>
-  <si>
-    <t>MLZ1608N100LT000</t>
-  </si>
-  <si>
-    <t>HK160810NJ-T</t>
-  </si>
-  <si>
-    <t>150060RS75000</t>
-  </si>
-  <si>
-    <t>RC0603JR-07470RL</t>
-  </si>
-  <si>
-    <t>RC0603JR-070RL</t>
-  </si>
-  <si>
-    <t>BK0603TS601-T</t>
-  </si>
-  <si>
-    <t>CC0201KRX5R5BB105</t>
-  </si>
-  <si>
-    <t>CC0201KRX5R8BB102</t>
-  </si>
-  <si>
-    <t>CC0402KRX7R9BB102</t>
-  </si>
-  <si>
-    <t>CC0402JRNPO9BN101</t>
-  </si>
-  <si>
-    <t>CC0402KRX7R7BB103</t>
-  </si>
-  <si>
-    <t>CC0402CRNPO9BN2R2</t>
-  </si>
-  <si>
-    <t>CC0402JRNPO9BN180</t>
-  </si>
-  <si>
-    <t>CC0402JRNPO9BN120</t>
-  </si>
-  <si>
-    <t>CC0402DRNPO9BN5R6</t>
-  </si>
-  <si>
-    <t>CC0402CRNPO9BN4R7</t>
-  </si>
-  <si>
-    <t>CC0402BRNPO9BNR80</t>
-  </si>
-  <si>
-    <t>GRM155R71H104KE14J</t>
-  </si>
-  <si>
-    <t>CC0402JRNPO9BN100</t>
-  </si>
-  <si>
-    <t>CC0402JRNPO9BN300</t>
-  </si>
-  <si>
-    <t>CC0402CRNPO9BN1R0</t>
-  </si>
-  <si>
-    <t>GRT155R61E474ME01D</t>
-  </si>
-  <si>
-    <t>C0402C150J5GACTU</t>
-  </si>
-  <si>
-    <t>CC0402KRX5R6BB334</t>
-  </si>
-  <si>
-    <t>CL05C0R5BB5NNNC</t>
-  </si>
-  <si>
-    <t>HK10051N8S-T</t>
-  </si>
-  <si>
-    <t>LQG15HN1N0C02D</t>
-  </si>
-  <si>
-    <t>HK10053N9S-T</t>
-  </si>
-  <si>
-    <t>LQG15WZ15NJ02D</t>
-  </si>
-  <si>
-    <t>0402HP-470EGTS</t>
-  </si>
-  <si>
-    <t>ERJ-2RKF4990X</t>
-  </si>
-  <si>
-    <t>RC0402FR-071KL</t>
-  </si>
-  <si>
-    <t>RC0402FR-0710KL</t>
-  </si>
-  <si>
-    <t>RC0402FR-0710RL</t>
-  </si>
-  <si>
-    <t>RC0402FR-0749R9L</t>
-  </si>
-  <si>
-    <t>RC0402JR-074K7L</t>
-  </si>
-  <si>
-    <t>RC0402FR-07330RL</t>
-  </si>
-  <si>
-    <t>RC0402FR-07470RL</t>
-  </si>
-  <si>
-    <t>RMCF0402FT4K02</t>
-  </si>
-  <si>
-    <t>RC0402FR-0720KL</t>
-  </si>
-  <si>
-    <t>RC0402FR-072K2L</t>
-  </si>
-  <si>
-    <t>RMCF0402FT6K49</t>
-  </si>
-  <si>
-    <t>ERJ-2RKF75R0X</t>
-  </si>
-  <si>
-    <t>ERJ-2RKF2491X</t>
-  </si>
-  <si>
-    <t>RC0402JR-070RL</t>
-  </si>
-  <si>
-    <t>CL21A475KAQNNNG</t>
-  </si>
-  <si>
-    <t>MLF2012C101KT000</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>Footprint</t>
   </si>
   <si>
+    <t>0402-A</t>
+  </si>
+  <si>
+    <t>HSEC8-120-01-L-PV-4-1 Gold Fingers</t>
+  </si>
+  <si>
+    <t>MOLX-67503-1020_V</t>
+  </si>
+  <si>
+    <t>1608[0603]</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>6-0805_M</t>
+  </si>
+  <si>
     <t>SOT-323_DIO</t>
   </si>
   <si>
+    <t>RMQ24_3P1X3P1_TEX</t>
+  </si>
+  <si>
+    <t>OSC_ECS-TXO-2520-33-400-AN-TR</t>
+  </si>
+  <si>
+    <t>FP-EMPCB_SMAFSTJ_B_HT-MFG</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>SMTC-FTSH-105-01-L-DV-K_V</t>
+  </si>
+  <si>
+    <t>C1210</t>
+  </si>
+  <si>
+    <t>PULS-HX1188FNL-SMT-16_V</t>
+  </si>
+  <si>
+    <t>LM-QFN-261_V</t>
+  </si>
+  <si>
+    <t>FP-LGA-14L-DM00249496-MFG</t>
+  </si>
+  <si>
+    <t>*SOIC127P600X175-8N</t>
+  </si>
+  <si>
+    <t>QFN-MQ20_L</t>
+  </si>
+  <si>
+    <t>SOIC-SO18_L</t>
+  </si>
+  <si>
     <t>SOT23_M</t>
   </si>
   <si>
+    <t>NRSC-QF-48_M</t>
+  </si>
+  <si>
     <t>SON40P130X200X60-7N</t>
   </si>
   <si>
-    <t>SOIC-SO18_L</t>
-  </si>
-  <si>
-    <t>SMTC-FTSH-105-01-L-DV-K_V</t>
-  </si>
-  <si>
-    <t>RMQ24_3P1X3P1_TEX</t>
-  </si>
-  <si>
-    <t>R38</t>
-  </si>
-  <si>
-    <t>QFN-MQ20_L</t>
-  </si>
-  <si>
-    <t>PULS-HX1188FNL-SMT-16_V</t>
-  </si>
-  <si>
     <t>PTS647SK38SMTR2LFS_CNK</t>
   </si>
   <si>
-    <t>OSC_ECS-TXO-2520-33-400-AN-TR</t>
-  </si>
-  <si>
-    <t>NRSC-QF-48_M</t>
-  </si>
-  <si>
-    <t>MOLX-67503-1020_V</t>
-  </si>
-  <si>
-    <t>LM-QFN-261_V</t>
-  </si>
-  <si>
-    <t>HSEC8-120-01-L-PV-4-1 Gold Fingers</t>
+    <t>BOUR-TC33X-2_V</t>
+  </si>
+  <si>
+    <t>D0008A_N</t>
+  </si>
+  <si>
+    <t>FP-DBZ0003A-MFG</t>
   </si>
   <si>
     <t>FTGB196 Package</t>
   </si>
   <si>
-    <t>FP-LGA-14L-DM00249496-MFG</t>
-  </si>
-  <si>
-    <t>FP-EMPCB_SMAFSTJ_B_HT-MFG</t>
-  </si>
-  <si>
-    <t>FP-DBZ0003A-MFG</t>
-  </si>
-  <si>
-    <t>D0008A_N</t>
-  </si>
-  <si>
-    <t>C1210</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>BOUR-TC33X-2_V</t>
-  </si>
-  <si>
-    <t>1608[0603]</t>
-  </si>
-  <si>
-    <t>0402-A</t>
-  </si>
-  <si>
-    <t>6-0805_M</t>
-  </si>
-  <si>
-    <t>*SOIC127P600X175-8N</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>47nH</t>
+  </si>
+  <si>
+    <t>4.7nF</t>
+  </si>
+  <si>
+    <t>600R@100MHz</t>
+  </si>
+  <si>
+    <t>15pF</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>0.8pF</t>
+  </si>
+  <si>
+    <t>1pF</t>
+  </si>
+  <si>
+    <t>2.2pF</t>
+  </si>
+  <si>
+    <t>4.7pF</t>
+  </si>
+  <si>
+    <t>5.6pF</t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>12pF</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>30pF</t>
+  </si>
+  <si>
+    <t>330nF</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>680pF</t>
+  </si>
+  <si>
+    <t>0.5pF</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>2.49k</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
     <t>100uF</t>
   </si>
   <si>
-    <t>47uF</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>4.7nF</t>
+    <t>1.8nH</t>
+  </si>
+  <si>
+    <t>3.9nH</t>
+  </si>
+  <si>
+    <t>10nH</t>
+  </si>
+  <si>
+    <t>1nH</t>
+  </si>
+  <si>
+    <t>15nH</t>
+  </si>
+  <si>
+    <t>100uH</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>2.2k</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>4.7k</t>
   </si>
   <si>
     <t>1M</t>
   </si>
   <si>
-    <t>600R@100MHz</t>
-  </si>
-  <si>
-    <t>680pF</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>1nF</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>470nF</t>
-  </si>
-  <si>
-    <t>10uH</t>
-  </si>
-  <si>
-    <t>10nH</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>2.2pF</t>
-  </si>
-  <si>
-    <t>18pF</t>
-  </si>
-  <si>
-    <t>12pF</t>
-  </si>
-  <si>
-    <t>5.6pF</t>
-  </si>
-  <si>
-    <t>4.7pF</t>
-  </si>
-  <si>
-    <t>0.8pF</t>
-  </si>
-  <si>
-    <t>10pF</t>
-  </si>
-  <si>
-    <t>30pF</t>
-  </si>
-  <si>
-    <t>1pF</t>
-  </si>
-  <si>
-    <t>15pF</t>
-  </si>
-  <si>
-    <t>330nF</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>0.5pF</t>
-  </si>
-  <si>
-    <t>1.8nH</t>
-  </si>
-  <si>
-    <t>1nH</t>
-  </si>
-  <si>
-    <t>3.9nH</t>
-  </si>
-  <si>
-    <t>15nH</t>
-  </si>
-  <si>
-    <t>47nH</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>4.7k</t>
-  </si>
-  <si>
     <t>4k</t>
   </si>
   <si>
-    <t>20k</t>
-  </si>
-  <si>
-    <t>2.2k</t>
-  </si>
-  <si>
     <t>6.49k</t>
-  </si>
-  <si>
-    <t>2.49k</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>100uH</t>
   </si>
   <si>
     <t>Supplier Unit Price 1</t>
@@ -1022,19 +1016,19 @@
         <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1044,43 +1038,25 @@
       <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.44</v>
-      </c>
-      <c r="H2">
-        <v>0.44</v>
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0.33</v>
-      </c>
-      <c r="H3">
-        <v>0.33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1091,36 +1067,42 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0.1482</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0.59279999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
       </c>
       <c r="G5">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="H5">
-        <v>4.74</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1128,7 +1110,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1140,44 +1122,41 @@
         <v>125</v>
       </c>
       <c r="G6">
-        <v>0.2301</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="H6">
-        <v>0.2301</v>
+        <v>0.69510000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>126</v>
       </c>
       <c r="G7">
-        <v>9.8000000000000004E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H7">
-        <v>0.19600000000000001</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>885012208079</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1185,1734 +1164,1779 @@
       <c r="E8" t="s">
         <v>127</v>
       </c>
+      <c r="F8" t="s">
+        <v>153</v>
+      </c>
       <c r="G8">
-        <v>0.69240000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="H8">
-        <v>0.69240000000000002</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>1.78</v>
+        <v>0.98</v>
       </c>
       <c r="H9">
-        <v>1.78</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>129</v>
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>603</v>
+      </c>
+      <c r="F10" t="s">
+        <v>154</v>
       </c>
       <c r="G10">
-        <v>2.7</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H10">
-        <v>5.4</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>123</v>
+      </c>
+      <c r="F11" t="s">
+        <v>155</v>
       </c>
       <c r="G11">
-        <v>3.58</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H11">
-        <v>3.58</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>130</v>
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <v>603</v>
+      </c>
+      <c r="F12" t="s">
+        <v>156</v>
       </c>
       <c r="G12">
-        <v>1.52</v>
+        <v>0.16</v>
       </c>
       <c r="H12">
-        <v>1.52</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>603</v>
+      </c>
+      <c r="F13" t="s">
+        <v>157</v>
       </c>
       <c r="G13">
-        <v>2.04</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="H13">
-        <v>2.04</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="H14">
+        <v>6.4600000000000005E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
       </c>
       <c r="G15">
-        <v>2.1</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="H15">
-        <v>2.1</v>
+        <v>2.4799999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
       </c>
       <c r="G16">
-        <v>4.08</v>
+        <v>2.47E-2</v>
       </c>
       <c r="H16">
-        <v>4.08</v>
+        <v>2.47E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
       </c>
       <c r="G17">
-        <v>0.13</v>
+        <v>2.47E-2</v>
       </c>
       <c r="H17">
-        <v>0.13</v>
+        <v>2.47E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
       </c>
       <c r="G18">
-        <v>3.01</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="H18">
-        <v>3.01</v>
+        <v>9.3899999999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
       </c>
       <c r="G19">
-        <v>5.46</v>
+        <v>2.46E-2</v>
       </c>
       <c r="H19">
-        <v>5.46</v>
+        <v>2.46E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>123</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
       </c>
       <c r="G20">
-        <v>0.84284999999999999</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H20">
-        <v>0.84284999999999999</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>123</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
       </c>
       <c r="G21">
-        <v>109.98</v>
+        <v>1.35E-2</v>
       </c>
       <c r="H21">
-        <v>109.98</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="H22">
+        <v>2.4799999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>167</v>
       </c>
       <c r="G23">
-        <v>28.75</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="H23">
-        <v>28.75</v>
+        <v>6.6600000000000006E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>168</v>
       </c>
       <c r="G24">
-        <v>2.78</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="H24">
-        <v>2.78</v>
+        <v>4.9200000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>169</v>
       </c>
       <c r="G25">
-        <v>3.07</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H25">
-        <v>9.2100000000000009</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="F26" t="s">
+        <v>157</v>
       </c>
       <c r="G26">
-        <v>0.75839999999999996</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H26">
-        <v>0.75839999999999996</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
       </c>
       <c r="G27">
-        <v>0.39229999999999998</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="H27">
-        <v>0.39229999999999998</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G28">
-        <v>2.2999999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H28">
-        <v>2.2999999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G29">
-        <v>1.1000000000000001</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="H29">
-        <v>3.31</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G30">
-        <v>0.90890000000000004</v>
+        <v>3.2710000000000003E-2</v>
       </c>
       <c r="H30">
-        <v>1.82</v>
+        <v>0.32705000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="G31">
-        <v>0.12570000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H31">
-        <v>0.75419999999999998</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32">
-        <v>885012208079</v>
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G32">
-        <v>0.12</v>
+        <v>7.5899999999999995E-2</v>
       </c>
       <c r="H32">
-        <v>0.12</v>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G33">
-        <v>9.8000000000000004E-2</v>
+        <v>0.1258</v>
       </c>
       <c r="H33">
-        <v>9.8000000000000004E-2</v>
+        <v>0.75480000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G34">
-        <v>9.0999999999999998E-2</v>
+        <v>0.2301</v>
       </c>
       <c r="H34">
-        <v>9.0999999999999998E-2</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="G35">
-        <v>0.98</v>
+        <v>1.52</v>
       </c>
       <c r="H35">
-        <v>0.98</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
-      </c>
-      <c r="F36" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="G36">
-        <v>0.1</v>
+        <v>3.01</v>
       </c>
       <c r="H36">
-        <v>0.1</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="G37">
-        <v>4.3900000000000002E-2</v>
+        <v>3.07</v>
       </c>
       <c r="H37">
-        <v>4.3900000000000002E-2</v>
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F38" t="s">
-        <v>160</v>
+        <v>123</v>
+      </c>
+      <c r="F38">
+        <v>75</v>
       </c>
       <c r="G38">
-        <v>2.7E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H38">
-        <v>0.27</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="F39" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G39">
-        <v>4.9000000000000002E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H39">
-        <v>4.9000000000000002E-2</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
-      </c>
-      <c r="F40" t="s">
-        <v>162</v>
+        <v>123</v>
+      </c>
+      <c r="F40">
+        <v>500</v>
       </c>
       <c r="G40">
-        <v>8.0000000000000002E-3</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="H40">
-        <v>0.04</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="G41">
-        <v>6.0000000000000001E-3</v>
+        <v>0.39229999999999998</v>
       </c>
       <c r="H41">
-        <v>0.10199999999999999</v>
+        <v>0.39229999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" t="s">
-        <v>164</v>
-      </c>
-      <c r="G42">
-        <v>0.1341</v>
-      </c>
-      <c r="H42">
-        <v>0.1341</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
-      </c>
-      <c r="F43" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="G43">
-        <v>2.3E-2</v>
+        <v>2.5</v>
       </c>
       <c r="H43">
-        <v>2.3E-2</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>135</v>
+      </c>
+      <c r="F44" t="s">
+        <v>177</v>
       </c>
       <c r="G44">
-        <v>0.14000000000000001</v>
+        <v>0.90890000000000004</v>
       </c>
       <c r="H44">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
-      </c>
-      <c r="F45">
-        <v>470</v>
+        <v>135</v>
+      </c>
+      <c r="F45" t="s">
+        <v>178</v>
       </c>
       <c r="G45">
-        <v>4.0000000000000001E-3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H45">
-        <v>1.2E-2</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="F46" t="s">
+        <v>172</v>
       </c>
       <c r="G46">
-        <v>4.0000000000000001E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H46">
-        <v>4.0000000000000001E-3</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D47">
-        <v>12</v>
-      </c>
-      <c r="E47">
-        <v>603</v>
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>126</v>
       </c>
       <c r="F47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G47">
-        <v>2.5999999999999999E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="H47">
-        <v>0.312</v>
+        <v>4.8300000000000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D48">
-        <v>49</v>
-      </c>
-      <c r="E48">
-        <v>603</v>
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>123</v>
       </c>
       <c r="F48" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G48">
-        <v>2.76E-2</v>
+        <v>0.1115</v>
       </c>
       <c r="H48">
-        <v>1.38</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D49">
-        <v>9</v>
-      </c>
-      <c r="E49">
-        <v>603</v>
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>123</v>
       </c>
       <c r="F49" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G49">
-        <v>1.0699999999999999E-2</v>
+        <v>2.18E-2</v>
       </c>
       <c r="H49">
-        <v>0.107</v>
+        <v>2.18E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G50">
-        <v>5.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H50">
-        <v>2.5000000000000001E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G51">
-        <v>6.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="H51">
-        <v>5.3999999999999999E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="G52">
-        <v>6.0000000000000001E-3</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H52">
-        <v>0.03</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F53" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="G53">
-        <v>5.0000000000000001E-3</v>
+        <v>109.98</v>
       </c>
       <c r="H53">
-        <v>5.0000000000000001E-3</v>
+        <v>109.98</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F54" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G54">
-        <v>6.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="H54">
-        <v>6.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F55" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G55">
-        <v>1.35E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="H55">
-        <v>0.13500000000000001</v>
+        <v>5.5899999999999998E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="G56">
-        <v>9.3899999999999997E-2</v>
+        <v>2.9</v>
       </c>
       <c r="H56">
-        <v>9.3899999999999997E-2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
-      </c>
-      <c r="F57" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="G57">
-        <v>5.0000000000000001E-3</v>
+        <v>0.24</v>
       </c>
       <c r="H57">
-        <v>5.0000000000000001E-3</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="G58">
-        <v>3.2300000000000002E-2</v>
+        <v>2.1</v>
       </c>
       <c r="H58">
-        <v>6.4600000000000005E-2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="D59">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
-      </c>
-      <c r="F59" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G59">
-        <v>3.1E-2</v>
+        <v>1.71</v>
       </c>
       <c r="H59">
-        <v>0.55800000000000005</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F60" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G60">
-        <v>5.0000000000000001E-3</v>
+        <v>0.16059999999999999</v>
       </c>
       <c r="H60">
-        <v>5.0000000000000001E-3</v>
+        <v>0.32119999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F61" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G61">
-        <v>3.3300000000000003E-2</v>
+        <v>0.1346</v>
       </c>
       <c r="H61">
-        <v>6.6600000000000006E-2</v>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>149</v>
-      </c>
-      <c r="F62" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="G62">
-        <v>2.4799999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H62">
-        <v>2.4799999999999999E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F63" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G63">
-        <v>0.1115</v>
+        <v>0.1</v>
       </c>
       <c r="H63">
-        <v>0.223</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>149</v>
-      </c>
-      <c r="F64" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="G64">
-        <v>5.0000000000000001E-3</v>
+        <v>5.46</v>
       </c>
       <c r="H64">
-        <v>0.01</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="G65">
-        <v>4.9599999999999998E-2</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="H65">
-        <v>4.9599999999999998E-2</v>
+        <v>0.69240000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
-      </c>
-      <c r="F66" t="s">
-        <v>179</v>
+        <v>145</v>
+      </c>
+      <c r="G66">
+        <v>0.13</v>
+      </c>
+      <c r="H66">
+        <v>0.13</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G67">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H67">
-        <v>4.0000000000000001E-3</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F68" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G68">
-        <v>2.18E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H68">
-        <v>2.18E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G69">
-        <v>0.1</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H69">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
-      </c>
-      <c r="F70" t="s">
-        <v>183</v>
+        <v>123</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
       </c>
       <c r="G70">
-        <v>1.2E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H70">
-        <v>1.2E-2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F71" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G71">
-        <v>5.5899999999999998E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H71">
-        <v>5.5899999999999998E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
-      </c>
-      <c r="F72" t="s">
-        <v>185</v>
+        <v>123</v>
+      </c>
+      <c r="F72">
+        <v>50</v>
       </c>
       <c r="G72">
-        <v>0.24</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H72">
-        <v>0.48</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F73">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="G73">
-        <v>2.9499999999999998E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H73">
-        <v>0.17699999999999999</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
-      </c>
-      <c r="F74" t="s">
-        <v>186</v>
+        <v>123</v>
+      </c>
+      <c r="F74">
+        <v>470</v>
       </c>
       <c r="G74">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H74">
-        <v>1.6E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>187</v>
+        <v>123</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>3.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H75">
-        <v>2.7E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
-      </c>
-      <c r="F76">
-        <v>10</v>
+        <v>123</v>
+      </c>
+      <c r="F76" t="s">
+        <v>190</v>
       </c>
       <c r="G76">
-        <v>2.1000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H76">
-        <v>4.2000000000000003E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F77">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="H77">
-        <v>0.02</v>
+        <v>1.5800000000000002E-2</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="F78">
+        <v>470</v>
       </c>
       <c r="G78">
-        <v>3.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H78">
-        <v>8.9999999999999993E-3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
-      </c>
-      <c r="F79">
-        <v>330</v>
+        <v>127</v>
+      </c>
+      <c r="F79" t="s">
+        <v>191</v>
       </c>
       <c r="G79">
         <v>9.8000000000000004E-2</v>
@@ -2923,48 +2947,42 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
-      </c>
-      <c r="F80">
-        <v>470</v>
+        <v>28</v>
       </c>
       <c r="G80">
-        <v>1.2E-2</v>
+        <v>2.04</v>
       </c>
       <c r="H80">
-        <v>0.12</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F81" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G81">
         <v>2.1100000000000001E-2</v>
@@ -2975,236 +2993,212 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F82" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G82">
-        <v>4.0000000000000001E-3</v>
+        <v>2.23E-2</v>
       </c>
       <c r="H82">
-        <v>4.0000000000000001E-3</v>
+        <v>2.23E-2</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>29</v>
       </c>
-      <c r="B83" t="s">
-        <v>57</v>
-      </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
-      </c>
-      <c r="F83" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="G83">
-        <v>1.2E-2</v>
+        <v>3.58</v>
       </c>
       <c r="H83">
-        <v>0.12</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>149</v>
-      </c>
-      <c r="F84" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="G84">
-        <v>2.23E-2</v>
+        <v>2.37</v>
       </c>
       <c r="H84">
-        <v>2.23E-2</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>149</v>
-      </c>
-      <c r="F85">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="G85">
-        <v>3.0000000000000001E-3</v>
+        <v>0.24060000000000001</v>
       </c>
       <c r="H85">
-        <v>1.2E-2</v>
+        <v>0.24060000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F86" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="G86">
-        <v>3.0000000000000001E-3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H86">
-        <v>6.0000000000000001E-3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>149</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G87">
-        <v>2E-3</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="H87">
-        <v>2E-3</v>
+        <v>0.75839999999999996</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G88">
-        <v>0.1482</v>
+        <v>2.02</v>
       </c>
       <c r="H88">
-        <v>0.59279999999999999</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C89" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
-      </c>
-      <c r="F89" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="G89">
-        <v>7.5899999999999995E-2</v>
+        <v>0.33</v>
       </c>
       <c r="H89">
-        <v>0.75900000000000001</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>150</v>
-      </c>
-      <c r="F90" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="G90">
-        <v>0.1603</v>
+        <v>28.91</v>
       </c>
       <c r="H90">
-        <v>0.3206</v>
+        <v>28.91</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>37</v>
       </c>
+      <c r="B91" t="s">
+        <v>58</v>
+      </c>
       <c r="C91" t="s">
         <v>37</v>
       </c>
@@ -3212,13 +3206,13 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="G91">
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
       <c r="H91">
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/M2RB/Project Outputs for M2RB/M2RB.xlsx
+++ b/M2RB/Project Outputs for M2RB/M2RB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\M2RB\Project Outputs for M2RB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C7AC0E4-9D47-420B-90D9-12465A8CD9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF46498-BBD4-492B-A2D8-BABB389BA116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="211">
   <si>
     <t>Name</t>
   </si>
@@ -45,33 +45,36 @@
     <t>HSEC8-120-01-L-PV-4-1</t>
   </si>
   <si>
+    <t>7B-10.000MEEQ-T</t>
+  </si>
+  <si>
     <t>74LVC1T45GF,132</t>
   </si>
   <si>
+    <t>67503-1020</t>
+  </si>
+  <si>
+    <t>LED0</t>
+  </si>
+  <si>
+    <t>AD9117BCPZ</t>
+  </si>
+  <si>
+    <t>ADL5371ACPZ-R7</t>
+  </si>
+  <si>
+    <t>AT25SL641_113</t>
+  </si>
+  <si>
     <t>Inductor</t>
   </si>
   <si>
-    <t>67503-1020</t>
-  </si>
-  <si>
-    <t>LED0</t>
-  </si>
-  <si>
-    <t>AT25SL641_113</t>
-  </si>
-  <si>
-    <t>600R, 0.27A</t>
-  </si>
-  <si>
     <t>D5V0L2B3W-7</t>
   </si>
   <si>
     <t>DP83825IRMQT</t>
   </si>
   <si>
-    <t>ECS-TXO-2520-33-400-AN-TR</t>
-  </si>
-  <si>
     <t>EMPCB.SMAFSTJ.B.HT</t>
   </si>
   <si>
@@ -90,21 +93,21 @@
     <t>HX1188FNL</t>
   </si>
   <si>
-    <t>LMS7002M</t>
+    <t>LMX2531LQ1742/NOPB</t>
   </si>
   <si>
     <t>LSM6DSMTR</t>
   </si>
   <si>
-    <t>M24128-BWMN6TP</t>
-  </si>
-  <si>
     <t>MCP2210-I/MQ</t>
   </si>
   <si>
     <t>MCP2515-I/SO</t>
   </si>
   <si>
+    <t>MIC94310-PYMT-TR</t>
+  </si>
+  <si>
     <t>NPN</t>
   </si>
   <si>
@@ -114,9 +117,6 @@
     <t>NRF52832-QFAA-R</t>
   </si>
   <si>
-    <t>PL133-27GC-R</t>
-  </si>
-  <si>
     <t>PTS647SK38SMTR2LFS</t>
   </si>
   <si>
@@ -126,9 +126,6 @@
     <t>SKY65111</t>
   </si>
   <si>
-    <t>TC1-1-13MA+</t>
-  </si>
-  <si>
     <t>TC33X-2-103E</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
     <t>TSX-3225 25.0000MF20P-C0</t>
   </si>
   <si>
+    <t>U.FL-R-SMT-1(10)</t>
+  </si>
+  <si>
     <t>XC7S25-1FTGB196C</t>
   </si>
   <si>
@@ -156,13 +156,16 @@
     <t>Capacitor</t>
   </si>
   <si>
+    <t>No Description Available</t>
+  </si>
+  <si>
     <t>USB, MINI, SMD, RA KME04-USBMU03A01</t>
   </si>
   <si>
-    <t>No Description Available</t>
-  </si>
-  <si>
-    <t>40MHz TCXO HCMOS Oscillator 3.3V Enable/Disable 4-SMD, No Lead</t>
+    <t>Dual 14-Bit Low Power TxDAC Digital-to-Analog Converter, 0 to +70 degC, CP-40-1, Pb-Free, Tray</t>
+  </si>
+  <si>
+    <t>500 MHz to 1500 MHz Quadrature Modulator, CP-24-2, Pb-Free, 1500 Reel</t>
   </si>
   <si>
     <t>CONN SMA JACK STR 50OHM EDGE MNT</t>
@@ -180,7 +183,7 @@
     <t>Telecom Transformer 1:1/1:1, -40 to 85 degC, 16-Pin SMT, RoHS, Tube</t>
   </si>
   <si>
-    <t>FPRF MIMO Transceiver IC with Integrated Microcontroller, 1.1 to 1.89 V, -40 to 85 degC, 261-Pin QFN, RoHS</t>
+    <t>High Performance Frequency Synthesizer System with Integrated VCO, 36-pin LLP, Pb-Free</t>
   </si>
   <si>
     <t>IMU ACCEL/GYRO I2C/SPI 14LGA</t>
@@ -198,9 +201,6 @@
     <t>Multiprotocol Bluetooth Smart, ANT/ANT+ and Proprietary System-on-Chip, 2.4 GHz, 256 KB FLASH, 1.7 to 3.6 V, -40 to 85 degC, 48-Pin QFN, RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>Clock Fanout Buffer _Distribution_ IC 1:2 150MHz 6-UFDFN Exposed Pad</t>
-  </si>
-  <si>
     <t>Trimming Potentiometer, 10000 Ohm, -40 to 100 degC, 3-Pin SMD, RoHS, Tape and Reel</t>
   </si>
   <si>
@@ -210,13 +210,16 @@
     <t>25MHz Crystal Oscillator</t>
   </si>
   <si>
+    <t>CONN U.FL RCPT STR 50 OHM SMD</t>
+  </si>
+  <si>
     <t>32MHz Crystal Oscillator</t>
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
-    <t>0402HP-470EGTS</t>
+    <t>0402N301J500CT</t>
   </si>
   <si>
     <t>150060RS75000</t>
@@ -225,24 +228,12 @@
     <t>AT25SL641-MHE-T</t>
   </si>
   <si>
-    <t>BK0603TS601-T</t>
-  </si>
-  <si>
     <t>C0402C150J5GACTU</t>
   </si>
   <si>
-    <t>CC0201KRX5R5BB105</t>
-  </si>
-  <si>
-    <t>CC0201KRX5R8BB102</t>
-  </si>
-  <si>
     <t>CC0402BRNPO9BNR80</t>
   </si>
   <si>
-    <t>CC0402CRNPO9BN1R0</t>
-  </si>
-  <si>
     <t>CC0402CRNPO9BN2R2</t>
   </si>
   <si>
@@ -279,7 +270,7 @@
     <t>CC0603KRX7R9BB681</t>
   </si>
   <si>
-    <t>CL05C0R5BB5NNNC</t>
+    <t>CL05C271JB5NNNC</t>
   </si>
   <si>
     <t>CL10B104KA8NNNC</t>
@@ -297,9 +288,18 @@
     <t>CL31A106MAHNNNE</t>
   </si>
   <si>
+    <t>CS160808-2R7K</t>
+  </si>
+  <si>
+    <t>ERJ-2BQJR22X</t>
+  </si>
+  <si>
     <t>ERJ-2RKF75R0X</t>
   </si>
   <si>
+    <t>ERJ-2RKF2001X</t>
+  </si>
+  <si>
     <t>ERJ-2RKF2491X</t>
   </si>
   <si>
@@ -312,6 +312,9 @@
     <t>GCM32ER70J476KE19L</t>
   </si>
   <si>
+    <t>GCM155R71C823KA55D</t>
+  </si>
+  <si>
     <t>GRM32ER61A107ME20K</t>
   </si>
   <si>
@@ -330,7 +333,7 @@
     <t>HK10053N9S-T</t>
   </si>
   <si>
-    <t>HK160810NJ-T</t>
+    <t>LPWI160808H1R0T</t>
   </si>
   <si>
     <t>LQG15HN1N0C02D</t>
@@ -339,7 +342,7 @@
     <t>LQG15WZ15NJ02D</t>
   </si>
   <si>
-    <t>MLF2012C101KT000</t>
+    <t>MLG1005SR24JT000</t>
   </si>
   <si>
     <t>MLZ1608N100LT000</t>
@@ -351,6 +354,12 @@
     <t>MPZ1608D300BTA00</t>
   </si>
   <si>
+    <t>PNM0402E5001BST1</t>
+  </si>
+  <si>
+    <t>RC0402FR-071K5L</t>
+  </si>
+  <si>
     <t>RC0402FR-071KL</t>
   </si>
   <si>
@@ -369,6 +378,9 @@
     <t>RC0402FR-0749R9L</t>
   </si>
   <si>
+    <t>RC0402FR-07100RL</t>
+  </si>
+  <si>
     <t>RC0402FR-07330RL</t>
   </si>
   <si>
@@ -381,21 +393,27 @@
     <t>RC0402JR-074K7L</t>
   </si>
   <si>
-    <t>RC0603JR-070RL</t>
-  </si>
-  <si>
     <t>RC0603JR-07470RL</t>
   </si>
   <si>
     <t>RC1206FR-071ML</t>
   </si>
   <si>
+    <t>RK73H1ETTP3R30F</t>
+  </si>
+  <si>
     <t>RMCF0402FT4K02</t>
   </si>
   <si>
     <t>RMCF0402FT6K49</t>
   </si>
   <si>
+    <t>RMCF0402FT26K1</t>
+  </si>
+  <si>
+    <t>RMCF0402JT51R0</t>
+  </si>
+  <si>
     <t>SKY65111-348LF</t>
   </si>
   <si>
@@ -405,12 +423,18 @@
     <t>Footprint</t>
   </si>
   <si>
+    <t>EXPOSED PAD 0.02X0.02</t>
+  </si>
+  <si>
     <t>0402-A</t>
   </si>
   <si>
     <t>HSEC8-120-01-L-PV-4-1 Gold Fingers</t>
   </si>
   <si>
+    <t>CRYSTAL_TXC_7B</t>
+  </si>
+  <si>
     <t>MOLX-67503-1020_V</t>
   </si>
   <si>
@@ -420,6 +444,12 @@
     <t>C1206</t>
   </si>
   <si>
+    <t>CP-40-1_N</t>
+  </si>
+  <si>
+    <t>ADI-CP-24-2_N</t>
+  </si>
+  <si>
     <t>6-0805_M</t>
   </si>
   <si>
@@ -429,15 +459,9 @@
     <t>RMQ24_3P1X3P1_TEX</t>
   </si>
   <si>
-    <t>OSC_ECS-TXO-2520-33-400-AN-TR</t>
-  </si>
-  <si>
     <t>FP-EMPCB_SMAFSTJ_B_HT-MFG</t>
   </si>
   <si>
-    <t>R38</t>
-  </si>
-  <si>
     <t>SMTC-FTSH-105-01-L-DV-K_V</t>
   </si>
   <si>
@@ -447,30 +471,27 @@
     <t>PULS-HX1188FNL-SMT-16_V</t>
   </si>
   <si>
-    <t>LM-QFN-261_V</t>
+    <t>NJG0036A_V</t>
   </si>
   <si>
     <t>FP-LGA-14L-DM00249496-MFG</t>
   </si>
   <si>
-    <t>*SOIC127P600X175-8N</t>
-  </si>
-  <si>
     <t>QFN-MQ20_L</t>
   </si>
   <si>
     <t>SOIC-SO18_L</t>
   </si>
   <si>
+    <t>TDFN4_1P2X1P6_MCH</t>
+  </si>
+  <si>
     <t>SOT23_M</t>
   </si>
   <si>
     <t>NRSC-QF-48_M</t>
   </si>
   <si>
-    <t>SON40P130X200X60-7N</t>
-  </si>
-  <si>
     <t>PTS647SK38SMTR2LFS_CNK</t>
   </si>
   <si>
@@ -483,115 +504,136 @@
     <t>FP-DBZ0003A-MFG</t>
   </si>
   <si>
+    <t>FP-U_FL-R-SMT-1_10-MFG</t>
+  </si>
+  <si>
     <t>FTGB196 Package</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
+    <t>NP</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
-    <t>47nH</t>
+    <t>300pF</t>
   </si>
   <si>
     <t>4.7nF</t>
   </si>
   <si>
+    <t>15pF</t>
+  </si>
+  <si>
+    <t>0.8pF</t>
+  </si>
+  <si>
+    <t>2.2pF</t>
+  </si>
+  <si>
+    <t>4.7pF</t>
+  </si>
+  <si>
+    <t>5.6pF</t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>12pF</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>30pF</t>
+  </si>
+  <si>
+    <t>330nF</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>680pF</t>
+  </si>
+  <si>
+    <t>270pF</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>2.7uH</t>
+  </si>
+  <si>
+    <t>220m</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>2.49k</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>82nF</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>1.8nH</t>
+  </si>
+  <si>
+    <t>3.9nH</t>
+  </si>
+  <si>
+    <t>1uH</t>
+  </si>
+  <si>
+    <t>1nH</t>
+  </si>
+  <si>
+    <t>15nH</t>
+  </si>
+  <si>
+    <t>240nH</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
     <t>600R@100MHz</t>
   </si>
   <si>
-    <t>15pF</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>1nF</t>
-  </si>
-  <si>
-    <t>0.8pF</t>
-  </si>
-  <si>
-    <t>1pF</t>
-  </si>
-  <si>
-    <t>2.2pF</t>
-  </si>
-  <si>
-    <t>4.7pF</t>
-  </si>
-  <si>
-    <t>5.6pF</t>
-  </si>
-  <si>
-    <t>10pF</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>12pF</t>
-  </si>
-  <si>
-    <t>18pF</t>
-  </si>
-  <si>
-    <t>30pF</t>
-  </si>
-  <si>
-    <t>330nF</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>680pF</t>
-  </si>
-  <si>
-    <t>0.5pF</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>470nF</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>2.49k</t>
-  </si>
-  <si>
-    <t>47uF</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>1.8nH</t>
-  </si>
-  <si>
-    <t>3.9nH</t>
-  </si>
-  <si>
-    <t>10nH</t>
-  </si>
-  <si>
-    <t>1nH</t>
-  </si>
-  <si>
-    <t>15nH</t>
-  </si>
-  <si>
-    <t>100uH</t>
-  </si>
-  <si>
-    <t>10uH</t>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>1.5k</t>
   </si>
   <si>
     <t>1k</t>
@@ -616,6 +658,9 @@
   </si>
   <si>
     <t>6.49k</t>
+  </si>
+  <si>
+    <t>26.1k</t>
   </si>
   <si>
     <t>Supplier Unit Price 1</t>
@@ -997,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -1013,139 +1058,121 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
+      <c r="A2">
+        <v>5029</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>0.1482</v>
-      </c>
-      <c r="H4">
-        <v>0.59279999999999999</v>
+        <v>130</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5">
-        <v>0.24</v>
-      </c>
-      <c r="H5">
-        <v>0.48</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G6">
-        <v>0.69510000000000005</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H6">
-        <v>0.69510000000000005</v>
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>0.14000000000000001</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H7">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1155,66 +1182,66 @@
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8">
-        <v>885012208079</v>
+      <c r="C8" t="s">
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G8">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="G9">
-        <v>0.98</v>
+        <v>0.70289999999999997</v>
       </c>
       <c r="H9">
-        <v>0.98</v>
+        <v>0.70289999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>603</v>
-      </c>
-      <c r="F10" t="s">
-        <v>154</v>
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
       </c>
       <c r="G10">
-        <v>2.5999999999999999E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H10">
-        <v>0.312</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1224,101 +1251,89 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>64</v>
+      <c r="C11">
+        <v>885012208079</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G11">
-        <v>5.0000000000000001E-3</v>
+        <v>0.12</v>
       </c>
       <c r="H11">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>49</v>
-      </c>
-      <c r="E12">
-        <v>603</v>
-      </c>
-      <c r="F12" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
       </c>
       <c r="G12">
-        <v>0.16</v>
+        <v>18.2</v>
       </c>
       <c r="H12">
-        <v>7.84</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>603</v>
-      </c>
-      <c r="F13" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>137</v>
       </c>
       <c r="G13">
-        <v>1.0200000000000001E-2</v>
+        <v>10.57</v>
       </c>
       <c r="H13">
-        <v>0.10199999999999999</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>3.2300000000000002E-2</v>
+        <v>0.98</v>
       </c>
       <c r="H14">
-        <v>6.4600000000000005E-2</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1329,22 +1344,22 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G15">
-        <v>2.4799999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H15">
-        <v>2.4799999999999999E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1355,22 +1370,22 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G16">
-        <v>2.47E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H16">
-        <v>2.47E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1381,22 +1396,22 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G17">
-        <v>2.47E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="H17">
-        <v>2.47E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1407,22 +1422,22 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G18">
-        <v>9.3899999999999997E-2</v>
+        <v>2.24E-2</v>
       </c>
       <c r="H18">
-        <v>9.3899999999999997E-2</v>
+        <v>2.24E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1433,22 +1448,22 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G19">
-        <v>2.46E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="H19">
-        <v>2.46E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1459,22 +1474,22 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G20">
-        <v>1.9E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="H20">
-        <v>0.19</v>
+        <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1485,22 +1500,22 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G21">
-        <v>1.35E-2</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="H21">
-        <v>0.13500000000000001</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1511,22 +1526,22 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G22">
-        <v>2.4799999999999999E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="H22">
-        <v>2.4799999999999999E-2</v>
+        <v>3.78E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1537,22 +1552,22 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G23">
-        <v>3.3300000000000003E-2</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="H23">
-        <v>6.6600000000000006E-2</v>
+        <v>1.41E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1563,22 +1578,22 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G24">
-        <v>4.9200000000000001E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="H24">
-        <v>4.9200000000000001E-2</v>
+        <v>6.6600000000000006E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1589,22 +1604,22 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G25">
-        <v>2.1000000000000001E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="H25">
-        <v>0.105</v>
+        <v>1.55E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1615,22 +1630,22 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G26">
-        <v>1.9E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H26">
-        <v>0.19</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1641,22 +1656,22 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G27">
-        <v>4.3900000000000002E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="H27">
-        <v>4.3900000000000002E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1667,22 +1682,22 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G28">
-        <v>4.0000000000000001E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="H28">
-        <v>4.0000000000000001E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1693,22 +1708,22 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G29">
-        <v>2.5700000000000001E-2</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="H29">
-        <v>0.25700000000000001</v>
+        <v>0.18379999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1719,22 +1734,22 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="G30">
-        <v>3.2710000000000003E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="H30">
-        <v>0.32705000000000001</v>
+        <v>4.6199999999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1745,22 +1760,22 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G31">
-        <v>6.0000000000000001E-3</v>
+        <v>3.3739999999999999E-2</v>
       </c>
       <c r="H31">
-        <v>0.10199999999999999</v>
+        <v>0.50609999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1771,22 +1786,22 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G32">
-        <v>7.5899999999999995E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H32">
-        <v>0.75900000000000001</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1797,45 +1812,48 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G33">
-        <v>0.1258</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H33">
-        <v>0.75480000000000003</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
+        <v>182</v>
       </c>
       <c r="G34">
-        <v>0.2301</v>
+        <v>0.1255</v>
       </c>
       <c r="H34">
-        <v>0.2301</v>
+        <v>0.87849999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1843,22 +1861,25 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>134</v>
+      </c>
+      <c r="F35" t="s">
+        <v>183</v>
       </c>
       <c r="G35">
-        <v>1.52</v>
+        <v>0.1042</v>
       </c>
       <c r="H35">
-        <v>1.52</v>
+        <v>0.4168</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1866,7 +1887,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1875,13 +1896,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G36">
-        <v>3.01</v>
+        <v>0.2301</v>
       </c>
       <c r="H36">
-        <v>3.01</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1889,22 +1910,22 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G37">
-        <v>3.07</v>
+        <v>1.52</v>
       </c>
       <c r="H37">
-        <v>9.2100000000000009</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1915,212 +1936,209 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="G38">
-        <v>1.2999999999999999E-2</v>
+        <v>2.61</v>
       </c>
       <c r="H38">
-        <v>5.1999999999999998E-2</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G39">
-        <v>6.0999999999999999E-2</v>
+        <v>0.1145</v>
       </c>
       <c r="H39">
-        <v>0.122</v>
+        <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F40">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G40">
-        <v>2.9499999999999998E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H40">
-        <v>0.17699999999999999</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>130</v>
+      </c>
+      <c r="F41" t="s">
+        <v>185</v>
       </c>
       <c r="G41">
-        <v>0.39229999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H41">
-        <v>0.39229999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="F42" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="H42">
+        <v>9.7999999999999997E-3</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="F43">
+        <v>500</v>
       </c>
       <c r="G43">
-        <v>2.5</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="H43">
-        <v>5.01</v>
+        <v>2.9399999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="G44">
-        <v>0.90890000000000004</v>
+        <v>0.41920000000000002</v>
       </c>
       <c r="H44">
-        <v>1.82</v>
+        <v>0.41920000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" t="s">
-        <v>178</v>
-      </c>
-      <c r="G45">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H45">
-        <v>3.31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="G46">
-        <v>3.1E-2</v>
+        <v>2.61</v>
       </c>
       <c r="H46">
-        <v>0.55800000000000005</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2131,22 +2149,22 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F47" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="G47">
-        <v>4.8300000000000003E-2</v>
+        <v>0.90890000000000004</v>
       </c>
       <c r="H47">
-        <v>4.8300000000000003E-2</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2157,198 +2175,201 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F48" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G48">
-        <v>0.1115</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="H48">
-        <v>0.223</v>
+        <v>4.3200000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G49">
-        <v>2.18E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H49">
-        <v>2.18E-2</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G50">
-        <v>9.8000000000000004E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H50">
-        <v>9.8000000000000004E-2</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F51" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G51">
-        <v>0.1</v>
+        <v>1.44E-2</v>
       </c>
       <c r="H51">
-        <v>0.1</v>
+        <v>1.44E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="F52" t="s">
+        <v>180</v>
       </c>
       <c r="G52">
-        <v>4.8499999999999996</v>
+        <v>0.1103</v>
       </c>
       <c r="H52">
-        <v>4.8499999999999996</v>
+        <v>0.1103</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="F53" t="s">
+        <v>190</v>
       </c>
       <c r="G53">
-        <v>109.98</v>
+        <v>2.18E-2</v>
       </c>
       <c r="H53">
-        <v>109.98</v>
+        <v>2.18E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F54" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G54">
-        <v>0.1</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H54">
-        <v>0.1</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="G55">
-        <v>5.5899999999999998E-2</v>
+        <v>3.64</v>
       </c>
       <c r="H55">
-        <v>5.5899999999999998E-2</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2365,396 +2386,393 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G56">
-        <v>2.9</v>
+        <v>11.69</v>
       </c>
       <c r="H56">
-        <v>2.9</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="F57" t="s">
+        <v>192</v>
       </c>
       <c r="G57">
-        <v>0.24</v>
+        <v>0.64</v>
       </c>
       <c r="H57">
-        <v>0.24</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>130</v>
+      </c>
+      <c r="F58" t="s">
+        <v>193</v>
       </c>
       <c r="G58">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="H58">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="F59" t="s">
+        <v>194</v>
       </c>
       <c r="G59">
-        <v>1.71</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="H59">
-        <v>1.71</v>
+        <v>5.3800000000000001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="G60">
-        <v>0.16059999999999999</v>
+        <v>2.78</v>
       </c>
       <c r="H60">
-        <v>0.32119999999999999</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="G61">
-        <v>0.1346</v>
+        <v>2.1</v>
       </c>
       <c r="H61">
-        <v>0.1346</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
         <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G62">
-        <v>0.1</v>
+        <v>1.79</v>
       </c>
       <c r="H62">
-        <v>0.2</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
-      </c>
-      <c r="F63" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G63">
-        <v>0.1</v>
+        <v>0.2762</v>
       </c>
       <c r="H63">
-        <v>0.1</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>130</v>
+      </c>
+      <c r="F64" t="s">
+        <v>195</v>
       </c>
       <c r="G64">
-        <v>5.46</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H64">
-        <v>5.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="F65" t="s">
+        <v>196</v>
       </c>
       <c r="G65">
-        <v>0.69240000000000002</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="H65">
-        <v>0.69240000000000002</v>
+        <v>8.2299999999999998E-2</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G66">
-        <v>0.13</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H66">
-        <v>0.13</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
         <v>105</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F67" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G67">
-        <v>1.2E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H67">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
-      </c>
-      <c r="F68" t="s">
-        <v>187</v>
-      </c>
-      <c r="G68">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H68">
-        <v>0.12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D69">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G69">
-        <v>1.2999999999999999E-2</v>
+        <v>0.98</v>
       </c>
       <c r="H69">
-        <v>0.13</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
-      </c>
-      <c r="F70">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G70">
-        <v>1.7999999999999999E-2</v>
+        <v>0.13</v>
       </c>
       <c r="H70">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F71" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G71">
-        <v>9.8000000000000004E-2</v>
+        <v>9.0300000000000005E-2</v>
       </c>
       <c r="H71">
-        <v>9.8000000000000004E-2</v>
+        <v>9.0300000000000005E-2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F72">
-        <v>50</v>
+        <v>130</v>
+      </c>
+      <c r="F72" t="s">
+        <v>200</v>
       </c>
       <c r="G72">
         <v>1.2E-2</v>
@@ -2765,178 +2783,178 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
-      </c>
-      <c r="F73">
-        <v>330</v>
+        <v>130</v>
+      </c>
+      <c r="F73" t="s">
+        <v>201</v>
       </c>
       <c r="G73">
-        <v>9.8000000000000004E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H73">
-        <v>9.8000000000000004E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D74">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>123</v>
-      </c>
-      <c r="F74">
-        <v>470</v>
+        <v>130</v>
+      </c>
+      <c r="F74" t="s">
+        <v>202</v>
       </c>
       <c r="G74">
-        <v>1.2E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H74">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G75">
-        <v>9.8000000000000004E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H75">
-        <v>9.8000000000000004E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F76" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G76">
-        <v>0.01</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H76">
-        <v>0.1</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G77">
-        <v>1.5800000000000002E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H77">
-        <v>1.5800000000000002E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F78">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="G78">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H78">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>127</v>
-      </c>
-      <c r="F79" t="s">
-        <v>191</v>
+        <v>130</v>
+      </c>
+      <c r="F79">
+        <v>330</v>
       </c>
       <c r="G79">
         <v>9.8000000000000004E-2</v>
@@ -2947,271 +2965,482 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>28</v>
+        <v>130</v>
+      </c>
+      <c r="F80">
+        <v>470</v>
       </c>
       <c r="G80">
-        <v>2.04</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H80">
-        <v>2.04</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>123</v>
-      </c>
-      <c r="F81" t="s">
-        <v>192</v>
+        <v>130</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>2.1100000000000001E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H81">
-        <v>2.1100000000000001E-2</v>
+        <v>1.44E-2</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F82" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G82">
-        <v>2.23E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="H82">
-        <v>2.23E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
       </c>
       <c r="C83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>134</v>
+      </c>
+      <c r="F83">
+        <v>470</v>
       </c>
       <c r="G83">
-        <v>3.58</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H83">
-        <v>3.58</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>30</v>
+        <v>135</v>
+      </c>
+      <c r="F84" t="s">
+        <v>205</v>
       </c>
       <c r="G84">
-        <v>2.37</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="H84">
-        <v>4.74</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="G85">
-        <v>0.24060000000000001</v>
+        <v>2.14</v>
       </c>
       <c r="H85">
-        <v>0.24060000000000001</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
-      </c>
-      <c r="F86" t="s">
-        <v>150</v>
+        <v>130</v>
+      </c>
+      <c r="F86">
+        <v>3.3</v>
       </c>
       <c r="G86">
-        <v>2.2999999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H86">
-        <v>2.2999999999999998</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>148</v>
+        <v>130</v>
+      </c>
+      <c r="F87" t="s">
+        <v>206</v>
       </c>
       <c r="G87">
-        <v>0.75839999999999996</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="H87">
-        <v>0.75839999999999996</v>
+        <v>2.1100000000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>130</v>
+      </c>
+      <c r="F88" t="s">
+        <v>207</v>
       </c>
       <c r="G88">
-        <v>2.02</v>
+        <v>2.23E-2</v>
       </c>
       <c r="H88">
-        <v>2.02</v>
+        <v>2.23E-2</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>130</v>
+      </c>
+      <c r="F89" t="s">
+        <v>208</v>
       </c>
       <c r="G89">
-        <v>0.33</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H89">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>149</v>
+        <v>130</v>
+      </c>
+      <c r="F90">
+        <v>51</v>
       </c>
       <c r="G90">
-        <v>28.91</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="H90">
-        <v>28.91</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91">
+        <v>3.58</v>
+      </c>
+      <c r="H91">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>153</v>
+      </c>
+      <c r="G92">
+        <v>0.26</v>
+      </c>
+      <c r="H92">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>154</v>
+      </c>
+      <c r="F93" t="s">
+        <v>158</v>
+      </c>
+      <c r="G93">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H93">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94">
+        <v>0.75839999999999996</v>
+      </c>
+      <c r="H94">
+        <v>0.75839999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95">
+        <v>1.89</v>
+      </c>
+      <c r="H95">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96">
+        <v>0.33</v>
+      </c>
+      <c r="H96">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>156</v>
+      </c>
+      <c r="G97">
+        <v>1.22</v>
+      </c>
+      <c r="H97">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>157</v>
+      </c>
+      <c r="G98">
+        <v>28.91</v>
+      </c>
+      <c r="H98">
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>37</v>
       </c>
-      <c r="B91" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B99" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" t="s">
         <v>37</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
         <v>37</v>
       </c>
-      <c r="G91">
+      <c r="G99">
         <v>0.44</v>
       </c>
-      <c r="H91">
+      <c r="H99">
         <v>0.44</v>
       </c>
     </row>

--- a/M2RB/Project Outputs for M2RB/M2RB.xlsx
+++ b/M2RB/Project Outputs for M2RB/M2RB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\M2RB\Project Outputs for M2RB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF46498-BBD4-492B-A2D8-BABB389BA116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6790F3B2-B6F2-4A5D-8E77-E24354CFC609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,9 +354,6 @@
     <t>MPZ1608D300BTA00</t>
   </si>
   <si>
-    <t>PNM0402E5001BST1</t>
-  </si>
-  <si>
     <t>RC0402FR-071K5L</t>
   </si>
   <si>
@@ -366,6 +363,9 @@
     <t>RC0402FR-072K2L</t>
   </si>
   <si>
+    <t>RC0402FR-075KL</t>
+  </si>
+  <si>
     <t>RC0402FR-0710KL</t>
   </si>
   <si>
@@ -630,16 +630,16 @@
     <t>600R@100MHz</t>
   </si>
   <si>
+    <t>1.5k</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>2.2k</t>
+  </si>
+  <si>
     <t>5k</t>
-  </si>
-  <si>
-    <t>1.5k</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>2.2k</t>
   </si>
   <si>
     <t>10k</t>
@@ -1218,10 +1218,10 @@
         <v>133</v>
       </c>
       <c r="G9">
-        <v>0.70289999999999997</v>
+        <v>0.70760000000000001</v>
       </c>
       <c r="H9">
-        <v>0.70289999999999997</v>
+        <v>0.70760000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1512,10 +1512,10 @@
         <v>169</v>
       </c>
       <c r="G21">
-        <v>5.1999999999999998E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="H21">
-        <v>5.1999999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1772,10 +1772,10 @@
         <v>179</v>
       </c>
       <c r="G31">
-        <v>3.3739999999999999E-2</v>
+        <v>3.3649999999999999E-2</v>
       </c>
       <c r="H31">
-        <v>0.50609999999999999</v>
+        <v>0.50473000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2023,10 +2023,10 @@
         <v>185</v>
       </c>
       <c r="G41">
-        <v>4.0000000000000001E-3</v>
+        <v>2.0799999999999998E-3</v>
       </c>
       <c r="H41">
-        <v>4.0000000000000001E-3</v>
+        <v>2.0799999999999998E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2265,10 +2265,10 @@
         <v>175</v>
       </c>
       <c r="G51">
-        <v>1.44E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H51">
-        <v>1.44E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2585,10 +2585,10 @@
         <v>195</v>
       </c>
       <c r="G64">
-        <v>3.9E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H64">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2682,51 +2682,51 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>130</v>
-      </c>
-      <c r="F69" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="G69">
-        <v>0.98</v>
+        <v>0.13</v>
       </c>
       <c r="H69">
-        <v>1.96</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
+        <v>198</v>
       </c>
       <c r="G70">
-        <v>0.13</v>
+        <v>9.0300000000000005E-2</v>
       </c>
       <c r="H70">
-        <v>0.13</v>
+        <v>9.0300000000000005E-2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2740,7 +2740,7 @@
         <v>107</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
         <v>130</v>
@@ -2749,10 +2749,10 @@
         <v>199</v>
       </c>
       <c r="G71">
-        <v>9.0300000000000005E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H71">
-        <v>9.0300000000000005E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
         <v>108</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
         <v>130</v>
@@ -2775,10 +2775,10 @@
         <v>200</v>
       </c>
       <c r="G72">
-        <v>1.2E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H72">
-        <v>0.12</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
         <v>109</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
         <v>130</v>
@@ -2801,10 +2801,10 @@
         <v>201</v>
       </c>
       <c r="G73">
-        <v>1.1000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H73">
-        <v>1.1000000000000001E-3</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3087,10 +3087,10 @@
         <v>205</v>
       </c>
       <c r="G84">
-        <v>9.1000000000000004E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H84">
-        <v>9.1000000000000004E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3280,10 +3280,10 @@
         <v>153</v>
       </c>
       <c r="G92">
-        <v>0.26</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H92">
-        <v>0.26</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">

--- a/M2RB/Project Outputs for M2RB/M2RB.xlsx
+++ b/M2RB/Project Outputs for M2RB/M2RB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\M2RB\Project Outputs for M2RB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C7AC0E4-9D47-420B-90D9-12465A8CD9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6790F3B2-B6F2-4A5D-8E77-E24354CFC609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="211">
   <si>
     <t>Name</t>
   </si>
@@ -45,33 +45,36 @@
     <t>HSEC8-120-01-L-PV-4-1</t>
   </si>
   <si>
+    <t>7B-10.000MEEQ-T</t>
+  </si>
+  <si>
     <t>74LVC1T45GF,132</t>
   </si>
   <si>
+    <t>67503-1020</t>
+  </si>
+  <si>
+    <t>LED0</t>
+  </si>
+  <si>
+    <t>AD9117BCPZ</t>
+  </si>
+  <si>
+    <t>ADL5371ACPZ-R7</t>
+  </si>
+  <si>
+    <t>AT25SL641_113</t>
+  </si>
+  <si>
     <t>Inductor</t>
   </si>
   <si>
-    <t>67503-1020</t>
-  </si>
-  <si>
-    <t>LED0</t>
-  </si>
-  <si>
-    <t>AT25SL641_113</t>
-  </si>
-  <si>
-    <t>600R, 0.27A</t>
-  </si>
-  <si>
     <t>D5V0L2B3W-7</t>
   </si>
   <si>
     <t>DP83825IRMQT</t>
   </si>
   <si>
-    <t>ECS-TXO-2520-33-400-AN-TR</t>
-  </si>
-  <si>
     <t>EMPCB.SMAFSTJ.B.HT</t>
   </si>
   <si>
@@ -90,21 +93,21 @@
     <t>HX1188FNL</t>
   </si>
   <si>
-    <t>LMS7002M</t>
+    <t>LMX2531LQ1742/NOPB</t>
   </si>
   <si>
     <t>LSM6DSMTR</t>
   </si>
   <si>
-    <t>M24128-BWMN6TP</t>
-  </si>
-  <si>
     <t>MCP2210-I/MQ</t>
   </si>
   <si>
     <t>MCP2515-I/SO</t>
   </si>
   <si>
+    <t>MIC94310-PYMT-TR</t>
+  </si>
+  <si>
     <t>NPN</t>
   </si>
   <si>
@@ -114,9 +117,6 @@
     <t>NRF52832-QFAA-R</t>
   </si>
   <si>
-    <t>PL133-27GC-R</t>
-  </si>
-  <si>
     <t>PTS647SK38SMTR2LFS</t>
   </si>
   <si>
@@ -126,9 +126,6 @@
     <t>SKY65111</t>
   </si>
   <si>
-    <t>TC1-1-13MA+</t>
-  </si>
-  <si>
     <t>TC33X-2-103E</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
     <t>TSX-3225 25.0000MF20P-C0</t>
   </si>
   <si>
+    <t>U.FL-R-SMT-1(10)</t>
+  </si>
+  <si>
     <t>XC7S25-1FTGB196C</t>
   </si>
   <si>
@@ -156,13 +156,16 @@
     <t>Capacitor</t>
   </si>
   <si>
+    <t>No Description Available</t>
+  </si>
+  <si>
     <t>USB, MINI, SMD, RA KME04-USBMU03A01</t>
   </si>
   <si>
-    <t>No Description Available</t>
-  </si>
-  <si>
-    <t>40MHz TCXO HCMOS Oscillator 3.3V Enable/Disable 4-SMD, No Lead</t>
+    <t>Dual 14-Bit Low Power TxDAC Digital-to-Analog Converter, 0 to +70 degC, CP-40-1, Pb-Free, Tray</t>
+  </si>
+  <si>
+    <t>500 MHz to 1500 MHz Quadrature Modulator, CP-24-2, Pb-Free, 1500 Reel</t>
   </si>
   <si>
     <t>CONN SMA JACK STR 50OHM EDGE MNT</t>
@@ -180,7 +183,7 @@
     <t>Telecom Transformer 1:1/1:1, -40 to 85 degC, 16-Pin SMT, RoHS, Tube</t>
   </si>
   <si>
-    <t>FPRF MIMO Transceiver IC with Integrated Microcontroller, 1.1 to 1.89 V, -40 to 85 degC, 261-Pin QFN, RoHS</t>
+    <t>High Performance Frequency Synthesizer System with Integrated VCO, 36-pin LLP, Pb-Free</t>
   </si>
   <si>
     <t>IMU ACCEL/GYRO I2C/SPI 14LGA</t>
@@ -198,9 +201,6 @@
     <t>Multiprotocol Bluetooth Smart, ANT/ANT+ and Proprietary System-on-Chip, 2.4 GHz, 256 KB FLASH, 1.7 to 3.6 V, -40 to 85 degC, 48-Pin QFN, RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>Clock Fanout Buffer _Distribution_ IC 1:2 150MHz 6-UFDFN Exposed Pad</t>
-  </si>
-  <si>
     <t>Trimming Potentiometer, 10000 Ohm, -40 to 100 degC, 3-Pin SMD, RoHS, Tape and Reel</t>
   </si>
   <si>
@@ -210,13 +210,16 @@
     <t>25MHz Crystal Oscillator</t>
   </si>
   <si>
+    <t>CONN U.FL RCPT STR 50 OHM SMD</t>
+  </si>
+  <si>
     <t>32MHz Crystal Oscillator</t>
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
-    <t>0402HP-470EGTS</t>
+    <t>0402N301J500CT</t>
   </si>
   <si>
     <t>150060RS75000</t>
@@ -225,24 +228,12 @@
     <t>AT25SL641-MHE-T</t>
   </si>
   <si>
-    <t>BK0603TS601-T</t>
-  </si>
-  <si>
     <t>C0402C150J5GACTU</t>
   </si>
   <si>
-    <t>CC0201KRX5R5BB105</t>
-  </si>
-  <si>
-    <t>CC0201KRX5R8BB102</t>
-  </si>
-  <si>
     <t>CC0402BRNPO9BNR80</t>
   </si>
   <si>
-    <t>CC0402CRNPO9BN1R0</t>
-  </si>
-  <si>
     <t>CC0402CRNPO9BN2R2</t>
   </si>
   <si>
@@ -279,7 +270,7 @@
     <t>CC0603KRX7R9BB681</t>
   </si>
   <si>
-    <t>CL05C0R5BB5NNNC</t>
+    <t>CL05C271JB5NNNC</t>
   </si>
   <si>
     <t>CL10B104KA8NNNC</t>
@@ -297,9 +288,18 @@
     <t>CL31A106MAHNNNE</t>
   </si>
   <si>
+    <t>CS160808-2R7K</t>
+  </si>
+  <si>
+    <t>ERJ-2BQJR22X</t>
+  </si>
+  <si>
     <t>ERJ-2RKF75R0X</t>
   </si>
   <si>
+    <t>ERJ-2RKF2001X</t>
+  </si>
+  <si>
     <t>ERJ-2RKF2491X</t>
   </si>
   <si>
@@ -312,6 +312,9 @@
     <t>GCM32ER70J476KE19L</t>
   </si>
   <si>
+    <t>GCM155R71C823KA55D</t>
+  </si>
+  <si>
     <t>GRM32ER61A107ME20K</t>
   </si>
   <si>
@@ -330,7 +333,7 @@
     <t>HK10053N9S-T</t>
   </si>
   <si>
-    <t>HK160810NJ-T</t>
+    <t>LPWI160808H1R0T</t>
   </si>
   <si>
     <t>LQG15HN1N0C02D</t>
@@ -339,7 +342,7 @@
     <t>LQG15WZ15NJ02D</t>
   </si>
   <si>
-    <t>MLF2012C101KT000</t>
+    <t>MLG1005SR24JT000</t>
   </si>
   <si>
     <t>MLZ1608N100LT000</t>
@@ -351,12 +354,18 @@
     <t>MPZ1608D300BTA00</t>
   </si>
   <si>
+    <t>RC0402FR-071K5L</t>
+  </si>
+  <si>
     <t>RC0402FR-071KL</t>
   </si>
   <si>
     <t>RC0402FR-072K2L</t>
   </si>
   <si>
+    <t>RC0402FR-075KL</t>
+  </si>
+  <si>
     <t>RC0402FR-0710KL</t>
   </si>
   <si>
@@ -369,6 +378,9 @@
     <t>RC0402FR-0749R9L</t>
   </si>
   <si>
+    <t>RC0402FR-07100RL</t>
+  </si>
+  <si>
     <t>RC0402FR-07330RL</t>
   </si>
   <si>
@@ -381,21 +393,27 @@
     <t>RC0402JR-074K7L</t>
   </si>
   <si>
-    <t>RC0603JR-070RL</t>
-  </si>
-  <si>
     <t>RC0603JR-07470RL</t>
   </si>
   <si>
     <t>RC1206FR-071ML</t>
   </si>
   <si>
+    <t>RK73H1ETTP3R30F</t>
+  </si>
+  <si>
     <t>RMCF0402FT4K02</t>
   </si>
   <si>
     <t>RMCF0402FT6K49</t>
   </si>
   <si>
+    <t>RMCF0402FT26K1</t>
+  </si>
+  <si>
+    <t>RMCF0402JT51R0</t>
+  </si>
+  <si>
     <t>SKY65111-348LF</t>
   </si>
   <si>
@@ -405,12 +423,18 @@
     <t>Footprint</t>
   </si>
   <si>
+    <t>EXPOSED PAD 0.02X0.02</t>
+  </si>
+  <si>
     <t>0402-A</t>
   </si>
   <si>
     <t>HSEC8-120-01-L-PV-4-1 Gold Fingers</t>
   </si>
   <si>
+    <t>CRYSTAL_TXC_7B</t>
+  </si>
+  <si>
     <t>MOLX-67503-1020_V</t>
   </si>
   <si>
@@ -420,6 +444,12 @@
     <t>C1206</t>
   </si>
   <si>
+    <t>CP-40-1_N</t>
+  </si>
+  <si>
+    <t>ADI-CP-24-2_N</t>
+  </si>
+  <si>
     <t>6-0805_M</t>
   </si>
   <si>
@@ -429,15 +459,9 @@
     <t>RMQ24_3P1X3P1_TEX</t>
   </si>
   <si>
-    <t>OSC_ECS-TXO-2520-33-400-AN-TR</t>
-  </si>
-  <si>
     <t>FP-EMPCB_SMAFSTJ_B_HT-MFG</t>
   </si>
   <si>
-    <t>R38</t>
-  </si>
-  <si>
     <t>SMTC-FTSH-105-01-L-DV-K_V</t>
   </si>
   <si>
@@ -447,30 +471,27 @@
     <t>PULS-HX1188FNL-SMT-16_V</t>
   </si>
   <si>
-    <t>LM-QFN-261_V</t>
+    <t>NJG0036A_V</t>
   </si>
   <si>
     <t>FP-LGA-14L-DM00249496-MFG</t>
   </si>
   <si>
-    <t>*SOIC127P600X175-8N</t>
-  </si>
-  <si>
     <t>QFN-MQ20_L</t>
   </si>
   <si>
     <t>SOIC-SO18_L</t>
   </si>
   <si>
+    <t>TDFN4_1P2X1P6_MCH</t>
+  </si>
+  <si>
     <t>SOT23_M</t>
   </si>
   <si>
     <t>NRSC-QF-48_M</t>
   </si>
   <si>
-    <t>SON40P130X200X60-7N</t>
-  </si>
-  <si>
     <t>PTS647SK38SMTR2LFS_CNK</t>
   </si>
   <si>
@@ -483,115 +504,133 @@
     <t>FP-DBZ0003A-MFG</t>
   </si>
   <si>
+    <t>FP-U_FL-R-SMT-1_10-MFG</t>
+  </si>
+  <si>
     <t>FTGB196 Package</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
+    <t>NP</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
-    <t>47nH</t>
+    <t>300pF</t>
   </si>
   <si>
     <t>4.7nF</t>
   </si>
   <si>
+    <t>15pF</t>
+  </si>
+  <si>
+    <t>0.8pF</t>
+  </si>
+  <si>
+    <t>2.2pF</t>
+  </si>
+  <si>
+    <t>4.7pF</t>
+  </si>
+  <si>
+    <t>5.6pF</t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>12pF</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>30pF</t>
+  </si>
+  <si>
+    <t>330nF</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>680pF</t>
+  </si>
+  <si>
+    <t>270pF</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>2.7uH</t>
+  </si>
+  <si>
+    <t>220m</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>2.49k</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>82nF</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>1.8nH</t>
+  </si>
+  <si>
+    <t>3.9nH</t>
+  </si>
+  <si>
+    <t>1uH</t>
+  </si>
+  <si>
+    <t>1nH</t>
+  </si>
+  <si>
+    <t>15nH</t>
+  </si>
+  <si>
+    <t>240nH</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
     <t>600R@100MHz</t>
   </si>
   <si>
-    <t>15pF</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>1nF</t>
-  </si>
-  <si>
-    <t>0.8pF</t>
-  </si>
-  <si>
-    <t>1pF</t>
-  </si>
-  <si>
-    <t>2.2pF</t>
-  </si>
-  <si>
-    <t>4.7pF</t>
-  </si>
-  <si>
-    <t>5.6pF</t>
-  </si>
-  <si>
-    <t>10pF</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>12pF</t>
-  </si>
-  <si>
-    <t>18pF</t>
-  </si>
-  <si>
-    <t>30pF</t>
-  </si>
-  <si>
-    <t>330nF</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>680pF</t>
-  </si>
-  <si>
-    <t>0.5pF</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>470nF</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>2.49k</t>
-  </si>
-  <si>
-    <t>47uF</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>1.8nH</t>
-  </si>
-  <si>
-    <t>3.9nH</t>
-  </si>
-  <si>
-    <t>10nH</t>
-  </si>
-  <si>
-    <t>1nH</t>
-  </si>
-  <si>
-    <t>15nH</t>
-  </si>
-  <si>
-    <t>100uH</t>
-  </si>
-  <si>
-    <t>10uH</t>
+    <t>1.5k</t>
   </si>
   <si>
     <t>1k</t>
@@ -600,6 +639,9 @@
     <t>2.2k</t>
   </si>
   <si>
+    <t>5k</t>
+  </si>
+  <si>
     <t>10k</t>
   </si>
   <si>
@@ -616,6 +658,9 @@
   </si>
   <si>
     <t>6.49k</t>
+  </si>
+  <si>
+    <t>26.1k</t>
   </si>
   <si>
     <t>Supplier Unit Price 1</t>
@@ -997,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -1013,139 +1058,121 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
+      <c r="A2">
+        <v>5029</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>0.1482</v>
-      </c>
-      <c r="H4">
-        <v>0.59279999999999999</v>
+        <v>130</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5">
-        <v>0.24</v>
-      </c>
-      <c r="H5">
-        <v>0.48</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G6">
-        <v>0.69510000000000005</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H6">
-        <v>0.69510000000000005</v>
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>0.14000000000000001</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H7">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1155,66 +1182,66 @@
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8">
-        <v>885012208079</v>
+      <c r="C8" t="s">
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G8">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="G9">
-        <v>0.98</v>
+        <v>0.70760000000000001</v>
       </c>
       <c r="H9">
-        <v>0.98</v>
+        <v>0.70760000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>603</v>
-      </c>
-      <c r="F10" t="s">
-        <v>154</v>
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
       </c>
       <c r="G10">
-        <v>2.5999999999999999E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H10">
-        <v>0.312</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1224,101 +1251,89 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>64</v>
+      <c r="C11">
+        <v>885012208079</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G11">
-        <v>5.0000000000000001E-3</v>
+        <v>0.12</v>
       </c>
       <c r="H11">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>49</v>
-      </c>
-      <c r="E12">
-        <v>603</v>
-      </c>
-      <c r="F12" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
       </c>
       <c r="G12">
-        <v>0.16</v>
+        <v>18.2</v>
       </c>
       <c r="H12">
-        <v>7.84</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>603</v>
-      </c>
-      <c r="F13" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>137</v>
       </c>
       <c r="G13">
-        <v>1.0200000000000001E-2</v>
+        <v>10.57</v>
       </c>
       <c r="H13">
-        <v>0.10199999999999999</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>3.2300000000000002E-2</v>
+        <v>0.98</v>
       </c>
       <c r="H14">
-        <v>6.4600000000000005E-2</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1329,22 +1344,22 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G15">
-        <v>2.4799999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H15">
-        <v>2.4799999999999999E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1355,22 +1370,22 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G16">
-        <v>2.47E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H16">
-        <v>2.47E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1381,22 +1396,22 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G17">
-        <v>2.47E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="H17">
-        <v>2.47E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1407,22 +1422,22 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G18">
-        <v>9.3899999999999997E-2</v>
+        <v>2.24E-2</v>
       </c>
       <c r="H18">
-        <v>9.3899999999999997E-2</v>
+        <v>2.24E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1433,22 +1448,22 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G19">
-        <v>2.46E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="H19">
-        <v>2.46E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1459,22 +1474,22 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G20">
-        <v>1.9E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="H20">
-        <v>0.19</v>
+        <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1485,22 +1500,22 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G21">
-        <v>1.35E-2</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="H21">
-        <v>0.13500000000000001</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1511,22 +1526,22 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G22">
-        <v>2.4799999999999999E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="H22">
-        <v>2.4799999999999999E-2</v>
+        <v>3.78E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1537,22 +1552,22 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G23">
-        <v>3.3300000000000003E-2</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="H23">
-        <v>6.6600000000000006E-2</v>
+        <v>1.41E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1563,22 +1578,22 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G24">
-        <v>4.9200000000000001E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="H24">
-        <v>4.9200000000000001E-2</v>
+        <v>6.6600000000000006E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1589,22 +1604,22 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G25">
-        <v>2.1000000000000001E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="H25">
-        <v>0.105</v>
+        <v>1.55E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1615,22 +1630,22 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G26">
-        <v>1.9E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H26">
-        <v>0.19</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1641,22 +1656,22 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G27">
-        <v>4.3900000000000002E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="H27">
-        <v>4.3900000000000002E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1667,22 +1682,22 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G28">
-        <v>4.0000000000000001E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="H28">
-        <v>4.0000000000000001E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1693,22 +1708,22 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G29">
-        <v>2.5700000000000001E-2</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="H29">
-        <v>0.25700000000000001</v>
+        <v>0.18379999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1719,22 +1734,22 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="G30">
-        <v>3.2710000000000003E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="H30">
-        <v>0.32705000000000001</v>
+        <v>4.6199999999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1745,22 +1760,22 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G31">
-        <v>6.0000000000000001E-3</v>
+        <v>3.3649999999999999E-2</v>
       </c>
       <c r="H31">
-        <v>0.10199999999999999</v>
+        <v>0.50473000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1771,22 +1786,22 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G32">
-        <v>7.5899999999999995E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H32">
-        <v>0.75900000000000001</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1797,45 +1812,48 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G33">
-        <v>0.1258</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H33">
-        <v>0.75480000000000003</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
+        <v>182</v>
       </c>
       <c r="G34">
-        <v>0.2301</v>
+        <v>0.1255</v>
       </c>
       <c r="H34">
-        <v>0.2301</v>
+        <v>0.87849999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1843,22 +1861,25 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>134</v>
+      </c>
+      <c r="F35" t="s">
+        <v>183</v>
       </c>
       <c r="G35">
-        <v>1.52</v>
+        <v>0.1042</v>
       </c>
       <c r="H35">
-        <v>1.52</v>
+        <v>0.4168</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1866,7 +1887,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1875,13 +1896,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G36">
-        <v>3.01</v>
+        <v>0.2301</v>
       </c>
       <c r="H36">
-        <v>3.01</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1889,22 +1910,22 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G37">
-        <v>3.07</v>
+        <v>1.52</v>
       </c>
       <c r="H37">
-        <v>9.2100000000000009</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1915,212 +1936,209 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="G38">
-        <v>1.2999999999999999E-2</v>
+        <v>2.61</v>
       </c>
       <c r="H38">
-        <v>5.1999999999999998E-2</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G39">
-        <v>6.0999999999999999E-2</v>
+        <v>0.1145</v>
       </c>
       <c r="H39">
-        <v>0.122</v>
+        <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F40">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G40">
-        <v>2.9499999999999998E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H40">
-        <v>0.17699999999999999</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>130</v>
+      </c>
+      <c r="F41" t="s">
+        <v>185</v>
       </c>
       <c r="G41">
-        <v>0.39229999999999998</v>
+        <v>2.0799999999999998E-3</v>
       </c>
       <c r="H41">
-        <v>0.39229999999999998</v>
+        <v>2.0799999999999998E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="F42" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="H42">
+        <v>9.7999999999999997E-3</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="F43">
+        <v>500</v>
       </c>
       <c r="G43">
-        <v>2.5</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="H43">
-        <v>5.01</v>
+        <v>2.9399999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="G44">
-        <v>0.90890000000000004</v>
+        <v>0.41920000000000002</v>
       </c>
       <c r="H44">
-        <v>1.82</v>
+        <v>0.41920000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" t="s">
-        <v>178</v>
-      </c>
-      <c r="G45">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H45">
-        <v>3.31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="G46">
-        <v>3.1E-2</v>
+        <v>2.61</v>
       </c>
       <c r="H46">
-        <v>0.55800000000000005</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2131,22 +2149,22 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F47" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="G47">
-        <v>4.8300000000000003E-2</v>
+        <v>0.90890000000000004</v>
       </c>
       <c r="H47">
-        <v>4.8300000000000003E-2</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2157,94 +2175,94 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F48" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G48">
-        <v>0.1115</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="H48">
-        <v>0.223</v>
+        <v>4.3200000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G49">
-        <v>2.18E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H49">
-        <v>2.18E-2</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G50">
-        <v>9.8000000000000004E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H50">
-        <v>9.8000000000000004E-2</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F51" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G51">
         <v>0.1</v>
@@ -2255,100 +2273,103 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="F52" t="s">
+        <v>180</v>
       </c>
       <c r="G52">
-        <v>4.8499999999999996</v>
+        <v>0.1103</v>
       </c>
       <c r="H52">
-        <v>4.8499999999999996</v>
+        <v>0.1103</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="F53" t="s">
+        <v>190</v>
       </c>
       <c r="G53">
-        <v>109.98</v>
+        <v>2.18E-2</v>
       </c>
       <c r="H53">
-        <v>109.98</v>
+        <v>2.18E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F54" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G54">
-        <v>0.1</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H54">
-        <v>0.1</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="G55">
-        <v>5.5899999999999998E-2</v>
+        <v>3.64</v>
       </c>
       <c r="H55">
-        <v>5.5899999999999998E-2</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2365,321 +2386,318 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G56">
-        <v>2.9</v>
+        <v>11.69</v>
       </c>
       <c r="H56">
-        <v>2.9</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="F57" t="s">
+        <v>192</v>
       </c>
       <c r="G57">
-        <v>0.24</v>
+        <v>0.64</v>
       </c>
       <c r="H57">
-        <v>0.24</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>130</v>
+      </c>
+      <c r="F58" t="s">
+        <v>193</v>
       </c>
       <c r="G58">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="H58">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="F59" t="s">
+        <v>194</v>
       </c>
       <c r="G59">
-        <v>1.71</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="H59">
-        <v>1.71</v>
+        <v>5.3800000000000001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="G60">
-        <v>0.16059999999999999</v>
+        <v>2.78</v>
       </c>
       <c r="H60">
-        <v>0.32119999999999999</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="G61">
-        <v>0.1346</v>
+        <v>2.1</v>
       </c>
       <c r="H61">
-        <v>0.1346</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
         <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G62">
-        <v>0.1</v>
+        <v>1.79</v>
       </c>
       <c r="H62">
-        <v>0.2</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
-      </c>
-      <c r="F63" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G63">
-        <v>0.1</v>
+        <v>0.2762</v>
       </c>
       <c r="H63">
-        <v>0.1</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>130</v>
+      </c>
+      <c r="F64" t="s">
+        <v>195</v>
       </c>
       <c r="G64">
-        <v>5.46</v>
+        <v>0.1</v>
       </c>
       <c r="H64">
-        <v>5.46</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="F65" t="s">
+        <v>196</v>
       </c>
       <c r="G65">
-        <v>0.69240000000000002</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="H65">
-        <v>0.69240000000000002</v>
+        <v>8.2299999999999998E-2</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G66">
-        <v>0.13</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H66">
-        <v>0.13</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
         <v>105</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F67" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G67">
-        <v>1.2E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H67">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
-      </c>
-      <c r="F68" t="s">
-        <v>187</v>
-      </c>
-      <c r="G68">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H68">
-        <v>0.12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D69">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>123</v>
-      </c>
-      <c r="F69" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="G69">
-        <v>1.2999999999999999E-2</v>
+        <v>0.13</v>
       </c>
       <c r="H69">
         <v>0.13</v>
@@ -2687,256 +2705,256 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
-      </c>
-      <c r="F70">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
+        <v>198</v>
       </c>
       <c r="G70">
-        <v>1.7999999999999999E-2</v>
+        <v>9.0300000000000005E-2</v>
       </c>
       <c r="H70">
-        <v>0.18</v>
+        <v>9.0300000000000005E-2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F71" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G71">
-        <v>9.8000000000000004E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H71">
-        <v>9.8000000000000004E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F72">
-        <v>50</v>
+        <v>130</v>
+      </c>
+      <c r="F72" t="s">
+        <v>200</v>
       </c>
       <c r="G72">
-        <v>1.2E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H72">
-        <v>0.12</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
-      </c>
-      <c r="F73">
-        <v>330</v>
+        <v>130</v>
+      </c>
+      <c r="F73" t="s">
+        <v>201</v>
       </c>
       <c r="G73">
-        <v>9.8000000000000004E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H73">
-        <v>9.8000000000000004E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D74">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>123</v>
-      </c>
-      <c r="F74">
-        <v>470</v>
+        <v>130</v>
+      </c>
+      <c r="F74" t="s">
+        <v>202</v>
       </c>
       <c r="G74">
-        <v>1.2E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H74">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G75">
-        <v>9.8000000000000004E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H75">
-        <v>9.8000000000000004E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F76" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G76">
-        <v>0.01</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H76">
-        <v>0.1</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G77">
-        <v>1.5800000000000002E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H77">
-        <v>1.5800000000000002E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F78">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="G78">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H78">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>127</v>
-      </c>
-      <c r="F79" t="s">
-        <v>191</v>
+        <v>130</v>
+      </c>
+      <c r="F79">
+        <v>330</v>
       </c>
       <c r="G79">
         <v>9.8000000000000004E-2</v>
@@ -2947,271 +2965,482 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>28</v>
+        <v>130</v>
+      </c>
+      <c r="F80">
+        <v>470</v>
       </c>
       <c r="G80">
-        <v>2.04</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H80">
-        <v>2.04</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>123</v>
-      </c>
-      <c r="F81" t="s">
-        <v>192</v>
+        <v>130</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>2.1100000000000001E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H81">
-        <v>2.1100000000000001E-2</v>
+        <v>1.44E-2</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F82" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G82">
-        <v>2.23E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="H82">
-        <v>2.23E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
       </c>
       <c r="C83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>134</v>
+      </c>
+      <c r="F83">
+        <v>470</v>
       </c>
       <c r="G83">
-        <v>3.58</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H83">
-        <v>3.58</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>30</v>
+        <v>135</v>
+      </c>
+      <c r="F84" t="s">
+        <v>205</v>
       </c>
       <c r="G84">
-        <v>2.37</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H84">
-        <v>4.74</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="G85">
-        <v>0.24060000000000001</v>
+        <v>2.14</v>
       </c>
       <c r="H85">
-        <v>0.24060000000000001</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
-      </c>
-      <c r="F86" t="s">
-        <v>150</v>
+        <v>130</v>
+      </c>
+      <c r="F86">
+        <v>3.3</v>
       </c>
       <c r="G86">
-        <v>2.2999999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H86">
-        <v>2.2999999999999998</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>148</v>
+        <v>130</v>
+      </c>
+      <c r="F87" t="s">
+        <v>206</v>
       </c>
       <c r="G87">
-        <v>0.75839999999999996</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="H87">
-        <v>0.75839999999999996</v>
+        <v>2.1100000000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>130</v>
+      </c>
+      <c r="F88" t="s">
+        <v>207</v>
       </c>
       <c r="G88">
-        <v>2.02</v>
+        <v>2.23E-2</v>
       </c>
       <c r="H88">
-        <v>2.02</v>
+        <v>2.23E-2</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>130</v>
+      </c>
+      <c r="F89" t="s">
+        <v>208</v>
       </c>
       <c r="G89">
-        <v>0.33</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H89">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>149</v>
+        <v>130</v>
+      </c>
+      <c r="F90">
+        <v>51</v>
       </c>
       <c r="G90">
-        <v>28.91</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="H90">
-        <v>28.91</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91">
+        <v>3.58</v>
+      </c>
+      <c r="H91">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>153</v>
+      </c>
+      <c r="G92">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H92">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>154</v>
+      </c>
+      <c r="F93" t="s">
+        <v>158</v>
+      </c>
+      <c r="G93">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H93">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94">
+        <v>0.75839999999999996</v>
+      </c>
+      <c r="H94">
+        <v>0.75839999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95">
+        <v>1.89</v>
+      </c>
+      <c r="H95">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96">
+        <v>0.33</v>
+      </c>
+      <c r="H96">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>156</v>
+      </c>
+      <c r="G97">
+        <v>1.22</v>
+      </c>
+      <c r="H97">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>157</v>
+      </c>
+      <c r="G98">
+        <v>28.91</v>
+      </c>
+      <c r="H98">
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>37</v>
       </c>
-      <c r="B91" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B99" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" t="s">
         <v>37</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
         <v>37</v>
       </c>
-      <c r="G91">
+      <c r="G99">
         <v>0.44</v>
       </c>
-      <c r="H91">
+      <c r="H99">
         <v>0.44</v>
       </c>
     </row>
